--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3158" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="536">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1983,7 +1983,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP516"/>
+  <dimension ref="A1:BP517"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ5">
         <v>0.86</v>
@@ -5001,7 +5001,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ15">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -7267,7 +7267,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ26">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AR26">
         <v>2.62</v>
@@ -11796,7 +11796,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ48">
         <v>0.76</v>
@@ -12826,7 +12826,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ53">
         <v>0.8100000000000001</v>
@@ -15507,7 +15507,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ66">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AR66">
         <v>1.23</v>
@@ -17976,7 +17976,7 @@
         <v>2</v>
       </c>
       <c r="AP78">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ78">
         <v>2.09</v>
@@ -20657,7 +20657,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ91">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AR91">
         <v>1.53</v>
@@ -22099,7 +22099,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ98">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AR98">
         <v>1.22</v>
@@ -25392,7 +25392,7 @@
         <v>2.25</v>
       </c>
       <c r="AP114">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ114">
         <v>1</v>
@@ -28070,7 +28070,7 @@
         <v>0.2</v>
       </c>
       <c r="AP127">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ127">
         <v>0.57</v>
@@ -29721,7 +29721,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ135">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AR135">
         <v>1.5</v>
@@ -32190,7 +32190,7 @@
         <v>0.67</v>
       </c>
       <c r="AP147">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ147">
         <v>1.05</v>
@@ -34868,7 +34868,7 @@
         <v>1.33</v>
       </c>
       <c r="AP160">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ160">
         <v>1.14</v>
@@ -35695,7 +35695,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ164">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AR164">
         <v>1.43</v>
@@ -40636,7 +40636,7 @@
         <v>1.43</v>
       </c>
       <c r="AP188">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ188">
         <v>1.19</v>
@@ -41463,7 +41463,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ192">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AR192">
         <v>1.35</v>
@@ -44344,7 +44344,7 @@
         <v>1</v>
       </c>
       <c r="AP206">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ206">
         <v>1.18</v>
@@ -44759,7 +44759,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ208">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AR208">
         <v>1.36</v>
@@ -51145,7 +51145,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ239">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AR239">
         <v>1.26</v>
@@ -52584,7 +52584,7 @@
         <v>1.44</v>
       </c>
       <c r="AP246">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ246">
         <v>1.41</v>
@@ -55880,7 +55880,7 @@
         <v>0.6</v>
       </c>
       <c r="AP262">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ262">
         <v>0.77</v>
@@ -58149,7 +58149,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ273">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AR273">
         <v>1.28</v>
@@ -59588,7 +59588,7 @@
         <v>0.17</v>
       </c>
       <c r="AP280">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ280">
         <v>0.41</v>
@@ -60415,7 +60415,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ284">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AR284">
         <v>1.42</v>
@@ -64741,7 +64741,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ305">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AR305">
         <v>1.29</v>
@@ -67416,7 +67416,7 @@
         <v>1.33</v>
       </c>
       <c r="AP318">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ318">
         <v>1.05</v>
@@ -69064,7 +69064,7 @@
         <v>0.31</v>
       </c>
       <c r="AP326">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ326">
         <v>0.68</v>
@@ -73599,7 +73599,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ348">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AR348">
         <v>1.45</v>
@@ -74420,7 +74420,7 @@
         <v>1</v>
       </c>
       <c r="AP352">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ352">
         <v>1.05</v>
@@ -76895,7 +76895,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ364">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AR364">
         <v>1.82</v>
@@ -78749,7 +78749,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ373">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AR373">
         <v>1.42</v>
@@ -80806,7 +80806,7 @@
         <v>0.44</v>
       </c>
       <c r="AP383">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ383">
         <v>0.59</v>
@@ -85753,7 +85753,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ407">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AR407">
         <v>1.54</v>
@@ -86986,7 +86986,7 @@
         <v>1.18</v>
       </c>
       <c r="AP413">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ413">
         <v>1.14</v>
@@ -91109,7 +91109,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ433">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AR433">
         <v>1.53</v>
@@ -94199,7 +94199,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ448">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AR448">
         <v>1.64</v>
@@ -94402,7 +94402,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP449">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ449">
         <v>0.8100000000000001</v>
@@ -99143,7 +99143,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ472">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AR472">
         <v>1.5</v>
@@ -100376,7 +100376,7 @@
         <v>2.11</v>
       </c>
       <c r="AP478">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ478">
         <v>1.9</v>
@@ -102851,7 +102851,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ490">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="AR490">
         <v>1.6</v>
@@ -103054,7 +103054,7 @@
         <v>0.9</v>
       </c>
       <c r="AP491">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AQ491">
         <v>1.09</v>
@@ -108283,6 +108283,212 @@
       </c>
       <c r="BP516">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="517" spans="1:68">
+      <c r="A517" s="1">
+        <v>516</v>
+      </c>
+      <c r="B517">
+        <v>7479252</v>
+      </c>
+      <c r="C517" t="s">
+        <v>68</v>
+      </c>
+      <c r="D517" t="s">
+        <v>69</v>
+      </c>
+      <c r="E517" s="2">
+        <v>45765.66666666666</v>
+      </c>
+      <c r="F517">
+        <v>43</v>
+      </c>
+      <c r="G517" t="s">
+        <v>73</v>
+      </c>
+      <c r="H517" t="s">
+        <v>76</v>
+      </c>
+      <c r="I517">
+        <v>0</v>
+      </c>
+      <c r="J517">
+        <v>1</v>
+      </c>
+      <c r="K517">
+        <v>1</v>
+      </c>
+      <c r="L517">
+        <v>0</v>
+      </c>
+      <c r="M517">
+        <v>1</v>
+      </c>
+      <c r="N517">
+        <v>1</v>
+      </c>
+      <c r="O517" t="s">
+        <v>95</v>
+      </c>
+      <c r="P517" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q517">
+        <v>8</v>
+      </c>
+      <c r="R517">
+        <v>2.38</v>
+      </c>
+      <c r="S517">
+        <v>1.83</v>
+      </c>
+      <c r="T517">
+        <v>1.36</v>
+      </c>
+      <c r="U517">
+        <v>3</v>
+      </c>
+      <c r="V517">
+        <v>2.63</v>
+      </c>
+      <c r="W517">
+        <v>1.44</v>
+      </c>
+      <c r="X517">
+        <v>7</v>
+      </c>
+      <c r="Y517">
+        <v>1.1</v>
+      </c>
+      <c r="Z517">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AA517">
+        <v>4.8</v>
+      </c>
+      <c r="AB517">
+        <v>1.35</v>
+      </c>
+      <c r="AC517">
+        <v>1.04</v>
+      </c>
+      <c r="AD517">
+        <v>10</v>
+      </c>
+      <c r="AE517">
+        <v>1.25</v>
+      </c>
+      <c r="AF517">
+        <v>3.95</v>
+      </c>
+      <c r="AG517">
+        <v>1.73</v>
+      </c>
+      <c r="AH517">
+        <v>2.05</v>
+      </c>
+      <c r="AI517">
+        <v>2.2</v>
+      </c>
+      <c r="AJ517">
+        <v>1.62</v>
+      </c>
+      <c r="AK517">
+        <v>3.1</v>
+      </c>
+      <c r="AL517">
+        <v>1.17</v>
+      </c>
+      <c r="AM517">
+        <v>1.07</v>
+      </c>
+      <c r="AN517">
+        <v>1.67</v>
+      </c>
+      <c r="AO517">
+        <v>1.71</v>
+      </c>
+      <c r="AP517">
+        <v>1.59</v>
+      </c>
+      <c r="AQ517">
+        <v>1.77</v>
+      </c>
+      <c r="AR517">
+        <v>1.23</v>
+      </c>
+      <c r="AS517">
+        <v>1.54</v>
+      </c>
+      <c r="AT517">
+        <v>2.77</v>
+      </c>
+      <c r="AU517">
+        <v>3</v>
+      </c>
+      <c r="AV517">
+        <v>5</v>
+      </c>
+      <c r="AW517">
+        <v>7</v>
+      </c>
+      <c r="AX517">
+        <v>7</v>
+      </c>
+      <c r="AY517">
+        <v>13</v>
+      </c>
+      <c r="AZ517">
+        <v>15</v>
+      </c>
+      <c r="BA517">
+        <v>2</v>
+      </c>
+      <c r="BB517">
+        <v>5</v>
+      </c>
+      <c r="BC517">
+        <v>7</v>
+      </c>
+      <c r="BD517">
+        <v>4.35</v>
+      </c>
+      <c r="BE517">
+        <v>8</v>
+      </c>
+      <c r="BF517">
+        <v>1.24</v>
+      </c>
+      <c r="BG517">
+        <v>1.26</v>
+      </c>
+      <c r="BH517">
+        <v>3.4</v>
+      </c>
+      <c r="BI517">
+        <v>1.46</v>
+      </c>
+      <c r="BJ517">
+        <v>2.5</v>
+      </c>
+      <c r="BK517">
+        <v>1.74</v>
+      </c>
+      <c r="BL517">
+        <v>1.96</v>
+      </c>
+      <c r="BM517">
+        <v>2.15</v>
+      </c>
+      <c r="BN517">
+        <v>1.61</v>
+      </c>
+      <c r="BO517">
+        <v>2.7</v>
+      </c>
+      <c r="BP517">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Championship_20242025.xlsx
@@ -111763,31 +111763,31 @@
         <v>2.78</v>
       </c>
       <c r="AU533">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV533">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW533">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AX533">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY533">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="AZ533">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA533">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BB533">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC533">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD533">
         <v>0</v>
@@ -111921,10 +111921,10 @@
         <v>0</v>
       </c>
       <c r="AE534">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AF534">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AG534">
         <v>2.2</v>
@@ -111969,31 +111969,31 @@
         <v>2.57</v>
       </c>
       <c r="AU534">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV534">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW534">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AX534">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY534">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="AZ534">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BA534">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB534">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC534">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD534">
         <v>0</v>
@@ -112175,31 +112175,31 @@
         <v>2.5</v>
       </c>
       <c r="AU535">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV535">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW535">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AX535">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AY535">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="AZ535">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA535">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB535">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC535">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD535">
         <v>0</v>
@@ -112381,31 +112381,31 @@
         <v>2.15</v>
       </c>
       <c r="AU536">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV536">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW536">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AX536">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY536">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="AZ536">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA536">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BB536">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC536">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD536">
         <v>0</v>
@@ -112587,31 +112587,31 @@
         <v>2.71</v>
       </c>
       <c r="AU537">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV537">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW537">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AX537">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY537">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="AZ537">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BA537">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB537">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC537">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD537">
         <v>0</v>
@@ -112739,10 +112739,10 @@
         <v>3.4</v>
       </c>
       <c r="AC538">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AD538">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AE538">
         <v>1.5</v>
@@ -112793,31 +112793,31 @@
         <v>2.54</v>
       </c>
       <c r="AU538">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV538">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW538">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AX538">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY538">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ538">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA538">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB538">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC538">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD538">
         <v>0</v>
@@ -112999,31 +112999,31 @@
         <v>2.63</v>
       </c>
       <c r="AU539">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV539">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW539">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX539">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY539">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ539">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BA539">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB539">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC539">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD539">
         <v>0</v>
@@ -113205,31 +113205,31 @@
         <v>2.76</v>
       </c>
       <c r="AU540">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV540">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AW540">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AX540">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AY540">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="AZ540">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="BA540">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BB540">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC540">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BD540">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Championship_20242025.xlsx
@@ -112608,10 +112608,10 @@
         <v>5</v>
       </c>
       <c r="BB537">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC537">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD537">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3374" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3380" uniqueCount="562">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1698,6 +1698,9 @@
   <si>
     <t>['28', '60']</t>
   </si>
+  <si>
+    <t>['45+3', '73', '79']</t>
+  </si>
 </sst>
 </file>
 
@@ -2058,7 +2061,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP552"/>
+  <dimension ref="A1:BP553"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2604,7 +2607,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ3">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -6309,7 +6312,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ21">
         <v>1.13</v>
@@ -7957,7 +7960,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ29">
         <v>1.04</v>
@@ -9402,7 +9405,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ36">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AR36">
         <v>1.57</v>
@@ -12286,7 +12289,7 @@
         <v>1</v>
       </c>
       <c r="AQ50">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AR50">
         <v>1.4</v>
@@ -15991,7 +15994,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ68">
         <v>0.65</v>
@@ -19084,7 +19087,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ83">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AR83">
         <v>1.1</v>
@@ -21965,7 +21968,7 @@
         <v>0</v>
       </c>
       <c r="AP97">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ97">
         <v>1.39</v>
@@ -24437,7 +24440,7 @@
         <v>0.25</v>
       </c>
       <c r="AP109">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ109">
         <v>0.74</v>
@@ -24646,7 +24649,7 @@
         <v>2.52</v>
       </c>
       <c r="AQ110">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AR110">
         <v>1.76</v>
@@ -29384,7 +29387,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ133">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AR133">
         <v>1.89</v>
@@ -29793,7 +29796,7 @@
         <v>1.8</v>
       </c>
       <c r="AP135">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ135">
         <v>1.83</v>
@@ -32680,7 +32683,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ149">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AR149">
         <v>1.31</v>
@@ -35149,10 +35152,10 @@
         <v>1.57</v>
       </c>
       <c r="AP161">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ161">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AR161">
         <v>1.36</v>
@@ -39681,7 +39684,7 @@
         <v>1.5</v>
       </c>
       <c r="AP183">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ183">
         <v>2.13</v>
@@ -39890,7 +39893,7 @@
         <v>1.96</v>
       </c>
       <c r="AQ184">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AR184">
         <v>1.86</v>
@@ -45655,7 +45658,7 @@
         <v>0.22</v>
       </c>
       <c r="AP212">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ212">
         <v>0.52</v>
@@ -48336,7 +48339,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ225">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AR225">
         <v>1.38</v>
@@ -49984,7 +49987,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ233">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AR233">
         <v>1.32</v>
@@ -51629,7 +51632,7 @@
         <v>1.11</v>
       </c>
       <c r="AP241">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ241">
         <v>1.17</v>
@@ -54722,7 +54725,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ256">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AR256">
         <v>1.63</v>
@@ -57191,7 +57194,7 @@
         <v>0.4</v>
       </c>
       <c r="AP268">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ268">
         <v>0.65</v>
@@ -60075,7 +60078,7 @@
         <v>0.64</v>
       </c>
       <c r="AP282">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ282">
         <v>0.61</v>
@@ -63168,7 +63171,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ297">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AR297">
         <v>1.55</v>
@@ -64610,7 +64613,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ304">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AR304">
         <v>1.45</v>
@@ -65019,7 +65022,7 @@
         <v>0.54</v>
       </c>
       <c r="AP306">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ306">
         <v>0.78</v>
@@ -69554,7 +69557,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ328">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AR328">
         <v>1.45</v>
@@ -73259,7 +73262,7 @@
         <v>1.23</v>
       </c>
       <c r="AP346">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ346">
         <v>1.13</v>
@@ -75940,7 +75943,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ359">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AR359">
         <v>1.38</v>
@@ -77997,7 +78000,7 @@
         <v>0.93</v>
       </c>
       <c r="AP369">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ369">
         <v>1.09</v>
@@ -79645,7 +79648,7 @@
         <v>0.87</v>
       </c>
       <c r="AP377">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ377">
         <v>0.78</v>
@@ -82738,7 +82741,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ392">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AR392">
         <v>1.41</v>
@@ -83559,7 +83562,7 @@
         <v>1.2</v>
       </c>
       <c r="AP396">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ396">
         <v>1.09</v>
@@ -87270,7 +87273,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ414">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AR414">
         <v>1.62</v>
@@ -90975,7 +90978,7 @@
         <v>1.18</v>
       </c>
       <c r="AP432">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ432">
         <v>1.13</v>
@@ -93859,7 +93862,7 @@
         <v>1</v>
       </c>
       <c r="AP446">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ446">
         <v>0.83</v>
@@ -96128,7 +96131,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ457">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AR457">
         <v>1.5</v>
@@ -99836,7 +99839,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ475">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AR475">
         <v>1.23</v>
@@ -101069,7 +101072,7 @@
         <v>0.89</v>
       </c>
       <c r="AP481">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ481">
         <v>0.74</v>
@@ -102511,7 +102514,7 @@
         <v>1.1</v>
       </c>
       <c r="AP488">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ488">
         <v>1</v>
@@ -104162,7 +104165,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ496">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AR496">
         <v>1.32</v>
@@ -107249,7 +107252,7 @@
         <v>1.57</v>
       </c>
       <c r="AP511">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ511">
         <v>1.43</v>
@@ -110960,7 +110963,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ529">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AR529">
         <v>1.45</v>
@@ -115489,7 +115492,7 @@
         <v>0.73</v>
       </c>
       <c r="AP551">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ551">
         <v>0.74</v>
@@ -115774,6 +115777,212 @@
       </c>
       <c r="BP552">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="553" spans="1:68">
+      <c r="A553" s="1">
+        <v>552</v>
+      </c>
+      <c r="B553">
+        <v>7893879</v>
+      </c>
+      <c r="C553" t="s">
+        <v>68</v>
+      </c>
+      <c r="D553" t="s">
+        <v>69</v>
+      </c>
+      <c r="E553" s="2">
+        <v>45785.66666666666</v>
+      </c>
+      <c r="F553">
+        <v>0</v>
+      </c>
+      <c r="G553" t="s">
+        <v>89</v>
+      </c>
+      <c r="H553" t="s">
+        <v>86</v>
+      </c>
+      <c r="I553">
+        <v>0</v>
+      </c>
+      <c r="J553">
+        <v>1</v>
+      </c>
+      <c r="K553">
+        <v>1</v>
+      </c>
+      <c r="L553">
+        <v>0</v>
+      </c>
+      <c r="M553">
+        <v>3</v>
+      </c>
+      <c r="N553">
+        <v>3</v>
+      </c>
+      <c r="O553" t="s">
+        <v>95</v>
+      </c>
+      <c r="P553" t="s">
+        <v>561</v>
+      </c>
+      <c r="Q553">
+        <v>3.6</v>
+      </c>
+      <c r="R553">
+        <v>1.91</v>
+      </c>
+      <c r="S553">
+        <v>3.6</v>
+      </c>
+      <c r="T553">
+        <v>1.57</v>
+      </c>
+      <c r="U553">
+        <v>2.25</v>
+      </c>
+      <c r="V553">
+        <v>3.75</v>
+      </c>
+      <c r="W553">
+        <v>1.25</v>
+      </c>
+      <c r="X553">
+        <v>13</v>
+      </c>
+      <c r="Y553">
+        <v>1.04</v>
+      </c>
+      <c r="Z553">
+        <v>2.59</v>
+      </c>
+      <c r="AA553">
+        <v>3.19</v>
+      </c>
+      <c r="AB553">
+        <v>2.69</v>
+      </c>
+      <c r="AC553">
+        <v>1.1</v>
+      </c>
+      <c r="AD553">
+        <v>6.5</v>
+      </c>
+      <c r="AE553">
+        <v>1.5</v>
+      </c>
+      <c r="AF553">
+        <v>2.4</v>
+      </c>
+      <c r="AG553">
+        <v>2.3</v>
+      </c>
+      <c r="AH553">
+        <v>1.55</v>
+      </c>
+      <c r="AI553">
+        <v>2.2</v>
+      </c>
+      <c r="AJ553">
+        <v>1.62</v>
+      </c>
+      <c r="AK553">
+        <v>1.43</v>
+      </c>
+      <c r="AL553">
+        <v>1.37</v>
+      </c>
+      <c r="AM553">
+        <v>1.44</v>
+      </c>
+      <c r="AN553">
+        <v>1.48</v>
+      </c>
+      <c r="AO553">
+        <v>1.98</v>
+      </c>
+      <c r="AP553">
+        <v>1.45</v>
+      </c>
+      <c r="AQ553">
+        <v>2</v>
+      </c>
+      <c r="AR553">
+        <v>1.46</v>
+      </c>
+      <c r="AS553">
+        <v>1.45</v>
+      </c>
+      <c r="AT553">
+        <v>2.91</v>
+      </c>
+      <c r="AU553">
+        <v>2</v>
+      </c>
+      <c r="AV553">
+        <v>7</v>
+      </c>
+      <c r="AW553">
+        <v>3</v>
+      </c>
+      <c r="AX553">
+        <v>10</v>
+      </c>
+      <c r="AY553">
+        <v>6</v>
+      </c>
+      <c r="AZ553">
+        <v>20</v>
+      </c>
+      <c r="BA553">
+        <v>2</v>
+      </c>
+      <c r="BB553">
+        <v>5</v>
+      </c>
+      <c r="BC553">
+        <v>7</v>
+      </c>
+      <c r="BD553">
+        <v>1.7</v>
+      </c>
+      <c r="BE553">
+        <v>6.5</v>
+      </c>
+      <c r="BF553">
+        <v>2.55</v>
+      </c>
+      <c r="BG553">
+        <v>1.25</v>
+      </c>
+      <c r="BH553">
+        <v>3.5</v>
+      </c>
+      <c r="BI553">
+        <v>1.46</v>
+      </c>
+      <c r="BJ553">
+        <v>2.4</v>
+      </c>
+      <c r="BK553">
+        <v>1.82</v>
+      </c>
+      <c r="BL553">
+        <v>1.82</v>
+      </c>
+      <c r="BM553">
+        <v>2.4</v>
+      </c>
+      <c r="BN553">
+        <v>1.47</v>
+      </c>
+      <c r="BO553">
+        <v>3.3</v>
+      </c>
+      <c r="BP553">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3380" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3386" uniqueCount="563">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1701,6 +1701,9 @@
   <si>
     <t>['45+3', '73', '79']</t>
   </si>
+  <si>
+    <t>['68', '88']</t>
+  </si>
 </sst>
 </file>
 
@@ -2061,7 +2064,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP553"/>
+  <dimension ref="A1:BP554"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4049,7 +4052,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ10">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -4870,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="AQ14">
         <v>0.65</v>
@@ -10432,7 +10435,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="AQ41">
         <v>0.83</v>
@@ -10847,7 +10850,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ43">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR43">
         <v>1.59</v>
@@ -13525,7 +13528,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ56">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR56">
         <v>1.63</v>
@@ -16612,7 +16615,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="AQ71">
         <v>1.09</v>
@@ -18263,7 +18266,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ79">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR79">
         <v>1.74</v>
@@ -20114,7 +20117,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="AQ88">
         <v>1.13</v>
@@ -22998,7 +23001,7 @@
         <v>0.25</v>
       </c>
       <c r="AP102">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="AQ102">
         <v>1.39</v>
@@ -26915,7 +26918,7 @@
         <v>1</v>
       </c>
       <c r="AQ121">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR121">
         <v>1.53</v>
@@ -28975,7 +28978,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ131">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR131">
         <v>1.3</v>
@@ -30002,7 +30005,7 @@
         <v>0.8</v>
       </c>
       <c r="AP136">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="AQ136">
         <v>0.65</v>
@@ -33507,7 +33510,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ153">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR153">
         <v>1.73</v>
@@ -36182,7 +36185,7 @@
         <v>0.29</v>
       </c>
       <c r="AP166">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="AQ166">
         <v>0.78</v>
@@ -36597,7 +36600,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ168">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR168">
         <v>1.18</v>
@@ -39890,7 +39893,7 @@
         <v>1.75</v>
       </c>
       <c r="AP184">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="AQ184">
         <v>1.87</v>
@@ -40511,7 +40514,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ187">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR187">
         <v>1.36</v>
@@ -44013,7 +44016,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ204">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR204">
         <v>1.53</v>
@@ -45452,7 +45455,7 @@
         <v>0.5</v>
       </c>
       <c r="AP211">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="AQ211">
         <v>0.74</v>
@@ -51426,7 +51429,7 @@
         <v>0.89</v>
       </c>
       <c r="AP240">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="AQ240">
         <v>1.13</v>
@@ -52253,7 +52256,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ244">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR244">
         <v>1.43</v>
@@ -57403,7 +57406,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ269">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR269">
         <v>1.31</v>
@@ -57812,7 +57815,7 @@
         <v>0.18</v>
       </c>
       <c r="AP271">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="AQ271">
         <v>0.52</v>
@@ -59463,7 +59466,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ279">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR279">
         <v>1.22</v>
@@ -59872,7 +59875,7 @@
         <v>0.8</v>
       </c>
       <c r="AP281">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="AQ281">
         <v>1.13</v>
@@ -66467,7 +66470,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ313">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR313">
         <v>1.47</v>
@@ -68112,7 +68115,7 @@
         <v>1.08</v>
       </c>
       <c r="AP321">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="AQ321">
         <v>0.96</v>
@@ -69763,7 +69766,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ329">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR329">
         <v>1.39</v>
@@ -72850,7 +72853,7 @@
         <v>0.86</v>
       </c>
       <c r="AP344">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="AQ344">
         <v>0.74</v>
@@ -76355,7 +76358,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ361">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR361">
         <v>1.49</v>
@@ -76970,7 +76973,7 @@
         <v>1.57</v>
       </c>
       <c r="AP364">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="AQ364">
         <v>1.83</v>
@@ -78618,7 +78621,7 @@
         <v>1.2</v>
       </c>
       <c r="AP372">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="AQ372">
         <v>1.17</v>
@@ -82947,7 +82950,7 @@
         <v>2.52</v>
       </c>
       <c r="AQ393">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR393">
         <v>1.99</v>
@@ -84592,7 +84595,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP401">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="AQ401">
         <v>0.74</v>
@@ -86449,7 +86452,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ410">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR410">
         <v>1.51</v>
@@ -89124,7 +89127,7 @@
         <v>0.76</v>
       </c>
       <c r="AP423">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="AQ423">
         <v>0.78</v>
@@ -95510,10 +95513,10 @@
         <v>1.61</v>
       </c>
       <c r="AP454">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="AQ454">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR454">
         <v>1.79</v>
@@ -99221,7 +99224,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ472">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR472">
         <v>1.52</v>
@@ -99424,7 +99427,7 @@
         <v>2.05</v>
       </c>
       <c r="AP473">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="AQ473">
         <v>2.13</v>
@@ -102105,7 +102108,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ486">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR486">
         <v>1.53</v>
@@ -103544,7 +103547,7 @@
         <v>0.5</v>
       </c>
       <c r="AP493">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="AQ493">
         <v>0.61</v>
@@ -107255,7 +107258,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ511">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR511">
         <v>1.64</v>
@@ -107664,7 +107667,7 @@
         <v>1.05</v>
       </c>
       <c r="AP513">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="AQ513">
         <v>1</v>
@@ -113023,7 +113026,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ539">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AR539">
         <v>1.23</v>
@@ -114256,7 +114259,7 @@
         <v>1.14</v>
       </c>
       <c r="AP545">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="AQ545">
         <v>1.09</v>
@@ -115983,6 +115986,212 @@
       </c>
       <c r="BP553">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="554" spans="1:68">
+      <c r="A554" s="1">
+        <v>553</v>
+      </c>
+      <c r="B554">
+        <v>7893880</v>
+      </c>
+      <c r="C554" t="s">
+        <v>68</v>
+      </c>
+      <c r="D554" t="s">
+        <v>69</v>
+      </c>
+      <c r="E554" s="2">
+        <v>45786.66666666666</v>
+      </c>
+      <c r="F554">
+        <v>0</v>
+      </c>
+      <c r="G554" t="s">
+        <v>82</v>
+      </c>
+      <c r="H554" t="s">
+        <v>93</v>
+      </c>
+      <c r="I554">
+        <v>0</v>
+      </c>
+      <c r="J554">
+        <v>0</v>
+      </c>
+      <c r="K554">
+        <v>0</v>
+      </c>
+      <c r="L554">
+        <v>1</v>
+      </c>
+      <c r="M554">
+        <v>2</v>
+      </c>
+      <c r="N554">
+        <v>3</v>
+      </c>
+      <c r="O554" t="s">
+        <v>394</v>
+      </c>
+      <c r="P554" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q554">
+        <v>3.1</v>
+      </c>
+      <c r="R554">
+        <v>1.95</v>
+      </c>
+      <c r="S554">
+        <v>4</v>
+      </c>
+      <c r="T554">
+        <v>1.53</v>
+      </c>
+      <c r="U554">
+        <v>2.38</v>
+      </c>
+      <c r="V554">
+        <v>3.5</v>
+      </c>
+      <c r="W554">
+        <v>1.29</v>
+      </c>
+      <c r="X554">
+        <v>11</v>
+      </c>
+      <c r="Y554">
+        <v>1.05</v>
+      </c>
+      <c r="Z554">
+        <v>2.3</v>
+      </c>
+      <c r="AA554">
+        <v>3.2</v>
+      </c>
+      <c r="AB554">
+        <v>3.1</v>
+      </c>
+      <c r="AC554">
+        <v>1.1</v>
+      </c>
+      <c r="AD554">
+        <v>6.5</v>
+      </c>
+      <c r="AE554">
+        <v>1.5</v>
+      </c>
+      <c r="AF554">
+        <v>2.55</v>
+      </c>
+      <c r="AG554">
+        <v>2.3</v>
+      </c>
+      <c r="AH554">
+        <v>1.55</v>
+      </c>
+      <c r="AI554">
+        <v>2</v>
+      </c>
+      <c r="AJ554">
+        <v>1.73</v>
+      </c>
+      <c r="AK554">
+        <v>1.33</v>
+      </c>
+      <c r="AL554">
+        <v>1.36</v>
+      </c>
+      <c r="AM554">
+        <v>1.57</v>
+      </c>
+      <c r="AN554">
+        <v>1.5</v>
+      </c>
+      <c r="AO554">
+        <v>1.65</v>
+      </c>
+      <c r="AP554">
+        <v>1.47</v>
+      </c>
+      <c r="AQ554">
+        <v>1.68</v>
+      </c>
+      <c r="AR554">
+        <v>1.49</v>
+      </c>
+      <c r="AS554">
+        <v>1.47</v>
+      </c>
+      <c r="AT554">
+        <v>2.96</v>
+      </c>
+      <c r="AU554">
+        <v>4</v>
+      </c>
+      <c r="AV554">
+        <v>4</v>
+      </c>
+      <c r="AW554">
+        <v>11</v>
+      </c>
+      <c r="AX554">
+        <v>7</v>
+      </c>
+      <c r="AY554">
+        <v>19</v>
+      </c>
+      <c r="AZ554">
+        <v>14</v>
+      </c>
+      <c r="BA554">
+        <v>10</v>
+      </c>
+      <c r="BB554">
+        <v>4</v>
+      </c>
+      <c r="BC554">
+        <v>14</v>
+      </c>
+      <c r="BD554">
+        <v>1.7</v>
+      </c>
+      <c r="BE554">
+        <v>6.75</v>
+      </c>
+      <c r="BF554">
+        <v>2.38</v>
+      </c>
+      <c r="BG554">
+        <v>1.24</v>
+      </c>
+      <c r="BH554">
+        <v>3.55</v>
+      </c>
+      <c r="BI554">
+        <v>1.43</v>
+      </c>
+      <c r="BJ554">
+        <v>2.6</v>
+      </c>
+      <c r="BK554">
+        <v>1.7</v>
+      </c>
+      <c r="BL554">
+        <v>2</v>
+      </c>
+      <c r="BM554">
+        <v>2.08</v>
+      </c>
+      <c r="BN554">
+        <v>1.65</v>
+      </c>
+      <c r="BO554">
+        <v>2.65</v>
+      </c>
+      <c r="BP554">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Championship_20242025.xlsx
@@ -116337,31 +116337,31 @@
         <v>2.91</v>
       </c>
       <c r="AU555">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV555">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW555">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AX555">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY555">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="AZ555">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BA555">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB555">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC555">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD555">
         <v>1.64</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3398" uniqueCount="565">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1222,19 +1222,19 @@
     <t>['28', '44']</t>
   </si>
   <si>
-    <t>['59', '74']</t>
+    <t>['29', '48']</t>
   </si>
   <si>
-    <t>['29', '48']</t>
+    <t>['59', '74']</t>
   </si>
   <si>
     <t>['21', '55', '82', '90+4']</t>
   </si>
   <si>
-    <t>['23', '57', '82']</t>
+    <t>['7', '30', '33', '57', '61']</t>
   </si>
   <si>
-    <t>['7', '30', '33', '57', '61']</t>
+    <t>['23', '57', '82']</t>
   </si>
   <si>
     <t>['44', '87']</t>
@@ -1681,16 +1681,19 @@
     <t>['7', '30', '87']</t>
   </si>
   <si>
+    <t>['38', '87']</t>
+  </si>
+  <si>
     <t>['9', '20', '28', '62', '90+2']</t>
   </si>
   <si>
     <t>['14', '75']</t>
   </si>
   <si>
-    <t>['40', '62', '90+3']</t>
+    <t>['9', '65', '88']</t>
   </si>
   <si>
-    <t>['9', '65', '88']</t>
+    <t>['40', '62', '90+3']</t>
   </si>
   <si>
     <t>['53', '90+1']</t>
@@ -2067,7 +2070,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP555"/>
+  <dimension ref="A1:BP556"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2613,7 +2616,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ3">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -3434,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ7">
         <v>1.04</v>
@@ -9202,7 +9205,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -9411,7 +9414,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ36">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="AR36">
         <v>1.57</v>
@@ -12295,7 +12298,7 @@
         <v>1</v>
       </c>
       <c r="AQ50">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="AR50">
         <v>1.4</v>
@@ -14764,7 +14767,7 @@
         <v>0.5</v>
       </c>
       <c r="AP62">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ62">
         <v>1.13</v>
@@ -19093,7 +19096,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ83">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="AR83">
         <v>1.1</v>
@@ -21768,7 +21771,7 @@
         <v>0.67</v>
       </c>
       <c r="AP96">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ96">
         <v>0.61</v>
@@ -24655,7 +24658,7 @@
         <v>2.52</v>
       </c>
       <c r="AQ110">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="AR110">
         <v>1.76</v>
@@ -26094,7 +26097,7 @@
         <v>1.5</v>
       </c>
       <c r="AP117">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ117">
         <v>0.83</v>
@@ -27536,7 +27539,7 @@
         <v>1</v>
       </c>
       <c r="AP124">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ124">
         <v>0.92</v>
@@ -29393,7 +29396,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ133">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="AR133">
         <v>1.89</v>
@@ -32480,7 +32483,7 @@
         <v>0.33</v>
       </c>
       <c r="AP148">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ148">
         <v>0.78</v>
@@ -32689,7 +32692,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ149">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="AR149">
         <v>1.31</v>
@@ -35161,7 +35164,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ161">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="AR161">
         <v>1.36</v>
@@ -37424,7 +37427,7 @@
         <v>1</v>
       </c>
       <c r="AP172">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ172">
         <v>1.13</v>
@@ -39899,7 +39902,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ184">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="AR184">
         <v>1.86</v>
@@ -41956,7 +41959,7 @@
         <v>0.43</v>
       </c>
       <c r="AP194">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ194">
         <v>0.74</v>
@@ -46076,7 +46079,7 @@
         <v>1.67</v>
       </c>
       <c r="AP214">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ214">
         <v>2.13</v>
@@ -48345,7 +48348,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ225">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="AR225">
         <v>1.38</v>
@@ -49993,7 +49996,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ233">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="AR233">
         <v>1.32</v>
@@ -52050,7 +52053,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP243">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ243">
         <v>0.74</v>
@@ -54731,7 +54734,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ256">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="AR256">
         <v>1.63</v>
@@ -58230,7 +58233,7 @@
         <v>1.4</v>
       </c>
       <c r="AP273">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ273">
         <v>1.83</v>
@@ -59466,7 +59469,7 @@
         <v>1.58</v>
       </c>
       <c r="AP279">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ279">
         <v>1.5</v>
@@ -63177,7 +63180,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ297">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="AR297">
         <v>1.55</v>
@@ -63380,7 +63383,7 @@
         <v>0.15</v>
       </c>
       <c r="AP298">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ298">
         <v>0.52</v>
@@ -64619,7 +64622,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ304">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="AR304">
         <v>1.45</v>
@@ -69563,7 +69566,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ328">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="AR328">
         <v>1.45</v>
@@ -71826,7 +71829,7 @@
         <v>0.54</v>
       </c>
       <c r="AP339">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ339">
         <v>0.65</v>
@@ -75949,7 +75952,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ359">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="AR359">
         <v>1.38</v>
@@ -81508,7 +81511,7 @@
         <v>1.06</v>
       </c>
       <c r="AP386">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ386">
         <v>1.09</v>
@@ -82747,7 +82750,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ392">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="AR392">
         <v>1.41</v>
@@ -86246,7 +86249,7 @@
         <v>1.13</v>
       </c>
       <c r="AP409">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ409">
         <v>1.09</v>
@@ -87279,7 +87282,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ414">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="AR414">
         <v>1.62</v>
@@ -87482,7 +87485,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP415">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ415">
         <v>0.74</v>
@@ -93662,7 +93665,7 @@
         <v>1.06</v>
       </c>
       <c r="AP445">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ445">
         <v>1.13</v>
@@ -96137,7 +96140,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ457">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="AR457">
         <v>1.5</v>
@@ -97988,7 +97991,7 @@
         <v>0.95</v>
       </c>
       <c r="AP466">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ466">
         <v>1.17</v>
@@ -99845,7 +99848,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ475">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="AR475">
         <v>1.23</v>
@@ -101902,7 +101905,7 @@
         <v>0.55</v>
       </c>
       <c r="AP485">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ485">
         <v>0.65</v>
@@ -104171,7 +104174,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ496">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="AR496">
         <v>1.32</v>
@@ -107052,7 +107055,7 @@
         <v>1.48</v>
       </c>
       <c r="AP510">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ510">
         <v>1.39</v>
@@ -110434,7 +110437,7 @@
         <v>526</v>
       </c>
       <c r="B527">
-        <v>7479265</v>
+        <v>7479259</v>
       </c>
       <c r="C527" t="s">
         <v>68</v>
@@ -110449,43 +110452,43 @@
         <v>44</v>
       </c>
       <c r="G527" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H527" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="I527">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J527">
         <v>0</v>
       </c>
       <c r="K527">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L527">
         <v>1</v>
       </c>
       <c r="M527">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N527">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O527" t="s">
-        <v>102</v>
+        <v>352</v>
       </c>
       <c r="P527" t="s">
-        <v>95</v>
+        <v>246</v>
       </c>
       <c r="Q527">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R527">
         <v>2</v>
       </c>
       <c r="S527">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="T527">
         <v>1.5</v>
@@ -110494,43 +110497,43 @@
         <v>2.5</v>
       </c>
       <c r="V527">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W527">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X527">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y527">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z527">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="AA527">
-        <v>3.39</v>
+        <v>3.18</v>
       </c>
       <c r="AB527">
-        <v>3.72</v>
+        <v>4.2</v>
       </c>
       <c r="AC527">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AD527">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE527">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AF527">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AG527">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="AH527">
-        <v>1.79</v>
+        <v>1.6</v>
       </c>
       <c r="AI527">
         <v>2</v>
@@ -110539,100 +110542,100 @@
         <v>1.73</v>
       </c>
       <c r="AK527">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AL527">
         <v>1.25</v>
       </c>
       <c r="AM527">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AN527">
-        <v>1.71</v>
+        <v>1.19</v>
       </c>
       <c r="AO527">
-        <v>0.8100000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="AP527">
-        <v>1.74</v>
+        <v>1.17</v>
       </c>
       <c r="AQ527">
-        <v>0.74</v>
+        <v>0.65</v>
       </c>
       <c r="AR527">
         <v>1.53</v>
       </c>
       <c r="AS527">
-        <v>1.26</v>
+        <v>1.02</v>
       </c>
       <c r="AT527">
-        <v>2.79</v>
+        <v>2.55</v>
       </c>
       <c r="AU527">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AV527">
+        <v>2</v>
+      </c>
+      <c r="AW527">
+        <v>9</v>
+      </c>
+      <c r="AX527">
+        <v>0</v>
+      </c>
+      <c r="AY527">
+        <v>18</v>
+      </c>
+      <c r="AZ527">
+        <v>2</v>
+      </c>
+      <c r="BA527">
         <v>4</v>
       </c>
-      <c r="AW527">
-        <v>5</v>
-      </c>
-      <c r="AX527">
-        <v>7</v>
-      </c>
-      <c r="AY527">
-        <v>16</v>
-      </c>
-      <c r="AZ527">
-        <v>15</v>
-      </c>
-      <c r="BA527">
-        <v>6</v>
-      </c>
       <c r="BB527">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BC527">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BD527">
-        <v>1.64</v>
+        <v>1.39</v>
       </c>
       <c r="BE527">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="BF527">
-        <v>2.68</v>
+        <v>3.7</v>
       </c>
       <c r="BG527">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="BH527">
-        <v>4.5</v>
+        <v>3.84</v>
       </c>
       <c r="BI527">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="BJ527">
-        <v>3.05</v>
+        <v>2.67</v>
       </c>
       <c r="BK527">
-        <v>1.53</v>
+        <v>1.69</v>
       </c>
       <c r="BL527">
-        <v>2.28</v>
+        <v>2.04</v>
       </c>
       <c r="BM527">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="BN527">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="BO527">
-        <v>2.42</v>
+        <v>2.74</v>
       </c>
       <c r="BP527">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="528" spans="1:68">
@@ -110640,7 +110643,7 @@
         <v>527</v>
       </c>
       <c r="B528">
-        <v>7479259</v>
+        <v>7479265</v>
       </c>
       <c r="C528" t="s">
         <v>68</v>
@@ -110655,43 +110658,43 @@
         <v>44</v>
       </c>
       <c r="G528" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H528" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="I528">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J528">
         <v>0</v>
       </c>
       <c r="K528">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L528">
         <v>1</v>
       </c>
       <c r="M528">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N528">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O528" t="s">
-        <v>352</v>
+        <v>102</v>
       </c>
       <c r="P528" t="s">
-        <v>246</v>
+        <v>95</v>
       </c>
       <c r="Q528">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R528">
         <v>2</v>
       </c>
       <c r="S528">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="T528">
         <v>1.5</v>
@@ -110700,43 +110703,43 @@
         <v>2.5</v>
       </c>
       <c r="V528">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W528">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X528">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y528">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z528">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="AA528">
-        <v>3.18</v>
+        <v>3.39</v>
       </c>
       <c r="AB528">
-        <v>4.2</v>
+        <v>3.72</v>
       </c>
       <c r="AC528">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AD528">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE528">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AF528">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AG528">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="AH528">
-        <v>1.6</v>
+        <v>1.79</v>
       </c>
       <c r="AI528">
         <v>2</v>
@@ -110745,100 +110748,100 @@
         <v>1.73</v>
       </c>
       <c r="AK528">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AL528">
         <v>1.25</v>
       </c>
       <c r="AM528">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AN528">
-        <v>1.19</v>
+        <v>1.71</v>
       </c>
       <c r="AO528">
-        <v>0.62</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AP528">
-        <v>1.17</v>
+        <v>1.74</v>
       </c>
       <c r="AQ528">
-        <v>0.65</v>
+        <v>0.74</v>
       </c>
       <c r="AR528">
         <v>1.53</v>
       </c>
       <c r="AS528">
-        <v>1.02</v>
+        <v>1.26</v>
       </c>
       <c r="AT528">
-        <v>2.55</v>
+        <v>2.79</v>
       </c>
       <c r="AU528">
+        <v>11</v>
+      </c>
+      <c r="AV528">
         <v>4</v>
       </c>
-      <c r="AV528">
-        <v>2</v>
-      </c>
       <c r="AW528">
+        <v>5</v>
+      </c>
+      <c r="AX528">
+        <v>7</v>
+      </c>
+      <c r="AY528">
+        <v>16</v>
+      </c>
+      <c r="AZ528">
+        <v>15</v>
+      </c>
+      <c r="BA528">
+        <v>6</v>
+      </c>
+      <c r="BB528">
+        <v>3</v>
+      </c>
+      <c r="BC528">
         <v>9</v>
       </c>
-      <c r="AX528">
-        <v>0</v>
-      </c>
-      <c r="AY528">
-        <v>18</v>
-      </c>
-      <c r="AZ528">
-        <v>2</v>
-      </c>
-      <c r="BA528">
-        <v>4</v>
-      </c>
-      <c r="BB528">
-        <v>0</v>
-      </c>
-      <c r="BC528">
-        <v>4</v>
-      </c>
       <c r="BD528">
-        <v>1.39</v>
+        <v>1.64</v>
       </c>
       <c r="BE528">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="BF528">
-        <v>3.7</v>
+        <v>2.68</v>
       </c>
       <c r="BG528">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="BH528">
-        <v>3.84</v>
+        <v>4.5</v>
       </c>
       <c r="BI528">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="BJ528">
-        <v>2.67</v>
+        <v>3.05</v>
       </c>
       <c r="BK528">
-        <v>1.69</v>
+        <v>1.53</v>
       </c>
       <c r="BL528">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="BM528">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="BN528">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="BO528">
-        <v>2.74</v>
+        <v>2.42</v>
       </c>
       <c r="BP528">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="529" spans="1:68">
@@ -110969,7 +110972,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ529">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="AR529">
         <v>1.45</v>
@@ -111052,7 +111055,7 @@
         <v>529</v>
       </c>
       <c r="B530">
-        <v>7479274</v>
+        <v>7479296</v>
       </c>
       <c r="C530" t="s">
         <v>68</v>
@@ -111061,196 +111064,196 @@
         <v>69</v>
       </c>
       <c r="E530" s="2">
-        <v>45773.35416666666</v>
+        <v>45772.66666666666</v>
       </c>
       <c r="F530">
         <v>45</v>
       </c>
       <c r="G530" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H530" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I530">
         <v>0</v>
       </c>
       <c r="J530">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K530">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L530">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M530">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N530">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O530" t="s">
-        <v>302</v>
+        <v>95</v>
       </c>
       <c r="P530" t="s">
-        <v>95</v>
+        <v>555</v>
       </c>
       <c r="Q530">
         <v>3.1</v>
       </c>
       <c r="R530">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S530">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T530">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U530">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V530">
+        <v>3.25</v>
+      </c>
+      <c r="W530">
+        <v>1.33</v>
+      </c>
+      <c r="X530">
+        <v>9</v>
+      </c>
+      <c r="Y530">
+        <v>1.07</v>
+      </c>
+      <c r="Z530">
+        <v>2.12</v>
+      </c>
+      <c r="AA530">
+        <v>3.45</v>
+      </c>
+      <c r="AB530">
+        <v>3.25</v>
+      </c>
+      <c r="AC530">
+        <v>1.01</v>
+      </c>
+      <c r="AD530">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE530">
+        <v>2.33</v>
+      </c>
+      <c r="AF530">
+        <v>1.64</v>
+      </c>
+      <c r="AG530">
+        <v>2</v>
+      </c>
+      <c r="AH530">
+        <v>1.75</v>
+      </c>
+      <c r="AI530">
+        <v>1.83</v>
+      </c>
+      <c r="AJ530">
+        <v>1.83</v>
+      </c>
+      <c r="AK530">
+        <v>1.33</v>
+      </c>
+      <c r="AL530">
+        <v>1.33</v>
+      </c>
+      <c r="AM530">
+        <v>1.67</v>
+      </c>
+      <c r="AN530">
+        <v>1.5</v>
+      </c>
+      <c r="AO530">
+        <v>1.82</v>
+      </c>
+      <c r="AP530">
+        <v>1.43</v>
+      </c>
+      <c r="AQ530">
+        <v>1.92</v>
+      </c>
+      <c r="AR530">
+        <v>1.24</v>
+      </c>
+      <c r="AS530">
+        <v>1.27</v>
+      </c>
+      <c r="AT530">
+        <v>2.51</v>
+      </c>
+      <c r="AU530">
+        <v>-1</v>
+      </c>
+      <c r="AV530">
+        <v>-1</v>
+      </c>
+      <c r="AW530">
+        <v>-1</v>
+      </c>
+      <c r="AX530">
+        <v>-1</v>
+      </c>
+      <c r="AY530">
+        <v>-1</v>
+      </c>
+      <c r="AZ530">
+        <v>-1</v>
+      </c>
+      <c r="BA530">
+        <v>8</v>
+      </c>
+      <c r="BB530">
         <v>3</v>
       </c>
-      <c r="W530">
-        <v>1.36</v>
-      </c>
-      <c r="X530">
-        <v>8</v>
-      </c>
-      <c r="Y530">
-        <v>1.08</v>
-      </c>
-      <c r="Z530">
-        <v>2.38</v>
-      </c>
-      <c r="AA530">
-        <v>3.29</v>
-      </c>
-      <c r="AB530">
-        <v>2.89</v>
-      </c>
-      <c r="AC530">
-        <v>0</v>
-      </c>
-      <c r="AD530">
-        <v>0</v>
-      </c>
-      <c r="AE530">
-        <v>0</v>
-      </c>
-      <c r="AF530">
-        <v>0</v>
-      </c>
-      <c r="AG530">
-        <v>1.91</v>
-      </c>
-      <c r="AH530">
-        <v>1.83</v>
-      </c>
-      <c r="AI530">
-        <v>1.73</v>
-      </c>
-      <c r="AJ530">
-        <v>2</v>
-      </c>
-      <c r="AK530">
-        <v>0</v>
-      </c>
-      <c r="AL530">
-        <v>0</v>
-      </c>
-      <c r="AM530">
-        <v>0</v>
-      </c>
-      <c r="AN530">
-        <v>1.41</v>
-      </c>
-      <c r="AO530">
-        <v>1.09</v>
-      </c>
-      <c r="AP530">
-        <v>1.48</v>
-      </c>
-      <c r="AQ530">
-        <v>1.04</v>
-      </c>
-      <c r="AR530">
-        <v>1.52</v>
-      </c>
-      <c r="AS530">
-        <v>1.25</v>
-      </c>
-      <c r="AT530">
-        <v>2.77</v>
-      </c>
-      <c r="AU530">
-        <v>8</v>
-      </c>
-      <c r="AV530">
-        <v>0</v>
-      </c>
-      <c r="AW530">
-        <v>12</v>
-      </c>
-      <c r="AX530">
-        <v>3</v>
-      </c>
-      <c r="AY530">
-        <v>25</v>
-      </c>
-      <c r="AZ530">
-        <v>3</v>
-      </c>
-      <c r="BA530">
-        <v>18</v>
-      </c>
-      <c r="BB530">
-        <v>2</v>
-      </c>
       <c r="BC530">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="BD530">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="BE530">
-        <v>0</v>
+        <v>7.55</v>
       </c>
       <c r="BF530">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="BG530">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="BH530">
-        <v>0</v>
+        <v>4.69</v>
       </c>
       <c r="BI530">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="BJ530">
-        <v>0</v>
+        <v>3.11</v>
       </c>
       <c r="BK530">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="BL530">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="BM530">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="BN530">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="BO530">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="BP530">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="531" spans="1:68">
@@ -111258,7 +111261,7 @@
         <v>530</v>
       </c>
       <c r="B531">
-        <v>7479279</v>
+        <v>7479274</v>
       </c>
       <c r="C531" t="s">
         <v>68</v>
@@ -111273,151 +111276,151 @@
         <v>45</v>
       </c>
       <c r="G531" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H531" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I531">
         <v>0</v>
       </c>
       <c r="J531">
+        <v>0</v>
+      </c>
+      <c r="K531">
+        <v>0</v>
+      </c>
+      <c r="L531">
+        <v>1</v>
+      </c>
+      <c r="M531">
+        <v>0</v>
+      </c>
+      <c r="N531">
+        <v>1</v>
+      </c>
+      <c r="O531" t="s">
+        <v>302</v>
+      </c>
+      <c r="P531" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q531">
+        <v>3.1</v>
+      </c>
+      <c r="R531">
+        <v>2.1</v>
+      </c>
+      <c r="S531">
+        <v>3.5</v>
+      </c>
+      <c r="T531">
+        <v>1.4</v>
+      </c>
+      <c r="U531">
+        <v>2.75</v>
+      </c>
+      <c r="V531">
         <v>3</v>
       </c>
-      <c r="K531">
+      <c r="W531">
+        <v>1.36</v>
+      </c>
+      <c r="X531">
+        <v>8</v>
+      </c>
+      <c r="Y531">
+        <v>1.08</v>
+      </c>
+      <c r="Z531">
+        <v>2.38</v>
+      </c>
+      <c r="AA531">
+        <v>3.29</v>
+      </c>
+      <c r="AB531">
+        <v>2.89</v>
+      </c>
+      <c r="AC531">
+        <v>0</v>
+      </c>
+      <c r="AD531">
+        <v>0</v>
+      </c>
+      <c r="AE531">
+        <v>0</v>
+      </c>
+      <c r="AF531">
+        <v>0</v>
+      </c>
+      <c r="AG531">
+        <v>1.91</v>
+      </c>
+      <c r="AH531">
+        <v>1.83</v>
+      </c>
+      <c r="AI531">
+        <v>1.73</v>
+      </c>
+      <c r="AJ531">
+        <v>2</v>
+      </c>
+      <c r="AK531">
+        <v>0</v>
+      </c>
+      <c r="AL531">
+        <v>0</v>
+      </c>
+      <c r="AM531">
+        <v>0</v>
+      </c>
+      <c r="AN531">
+        <v>1.41</v>
+      </c>
+      <c r="AO531">
+        <v>1.09</v>
+      </c>
+      <c r="AP531">
+        <v>1.48</v>
+      </c>
+      <c r="AQ531">
+        <v>1.04</v>
+      </c>
+      <c r="AR531">
+        <v>1.52</v>
+      </c>
+      <c r="AS531">
+        <v>1.25</v>
+      </c>
+      <c r="AT531">
+        <v>2.77</v>
+      </c>
+      <c r="AU531">
+        <v>8</v>
+      </c>
+      <c r="AV531">
+        <v>0</v>
+      </c>
+      <c r="AW531">
+        <v>12</v>
+      </c>
+      <c r="AX531">
         <v>3</v>
       </c>
-      <c r="L531">
-        <v>0</v>
-      </c>
-      <c r="M531">
-        <v>5</v>
-      </c>
-      <c r="N531">
-        <v>5</v>
-      </c>
-      <c r="O531" t="s">
-        <v>95</v>
-      </c>
-      <c r="P531" t="s">
-        <v>555</v>
-      </c>
-      <c r="Q531">
-        <v>4.75</v>
-      </c>
-      <c r="R531">
-        <v>2</v>
-      </c>
-      <c r="S531">
-        <v>2.63</v>
-      </c>
-      <c r="T531">
-        <v>1.5</v>
-      </c>
-      <c r="U531">
-        <v>2.5</v>
-      </c>
-      <c r="V531">
-        <v>3.4</v>
-      </c>
-      <c r="W531">
-        <v>1.3</v>
-      </c>
-      <c r="X531">
-        <v>10</v>
-      </c>
-      <c r="Y531">
-        <v>1.06</v>
-      </c>
-      <c r="Z531">
-        <v>4.7</v>
-      </c>
-      <c r="AA531">
-        <v>4.1</v>
-      </c>
-      <c r="AB531">
-        <v>1.64</v>
-      </c>
-      <c r="AC531">
-        <v>0</v>
-      </c>
-      <c r="AD531">
-        <v>0</v>
-      </c>
-      <c r="AE531">
-        <v>0</v>
-      </c>
-      <c r="AF531">
-        <v>0</v>
-      </c>
-      <c r="AG531">
-        <v>2.25</v>
-      </c>
-      <c r="AH531">
-        <v>1.6</v>
-      </c>
-      <c r="AI531">
-        <v>2.1</v>
-      </c>
-      <c r="AJ531">
-        <v>1.67</v>
-      </c>
-      <c r="AK531">
-        <v>0</v>
-      </c>
-      <c r="AL531">
-        <v>0</v>
-      </c>
-      <c r="AM531">
-        <v>0</v>
-      </c>
-      <c r="AN531">
-        <v>1.32</v>
-      </c>
-      <c r="AO531">
-        <v>2.09</v>
-      </c>
-      <c r="AP531">
-        <v>1.26</v>
-      </c>
-      <c r="AQ531">
-        <v>2.13</v>
-      </c>
-      <c r="AR531">
-        <v>1.57</v>
-      </c>
-      <c r="AS531">
-        <v>1.31</v>
-      </c>
-      <c r="AT531">
-        <v>2.88</v>
-      </c>
-      <c r="AU531">
+      <c r="AY531">
+        <v>25</v>
+      </c>
+      <c r="AZ531">
         <v>3</v>
       </c>
-      <c r="AV531">
-        <v>11</v>
-      </c>
-      <c r="AW531">
-        <v>7</v>
-      </c>
-      <c r="AX531">
-        <v>6</v>
-      </c>
-      <c r="AY531">
-        <v>11</v>
-      </c>
-      <c r="AZ531">
+      <c r="BA531">
+        <v>18</v>
+      </c>
+      <c r="BB531">
+        <v>2</v>
+      </c>
+      <c r="BC531">
         <v>20</v>
-      </c>
-      <c r="BA531">
-        <v>2</v>
-      </c>
-      <c r="BB531">
-        <v>6</v>
-      </c>
-      <c r="BC531">
-        <v>8</v>
       </c>
       <c r="BD531">
         <v>0</v>
@@ -111464,7 +111467,7 @@
         <v>531</v>
       </c>
       <c r="B532">
-        <v>7479280</v>
+        <v>7479279</v>
       </c>
       <c r="C532" t="s">
         <v>68</v>
@@ -111473,157 +111476,157 @@
         <v>69</v>
       </c>
       <c r="E532" s="2">
-        <v>45773.45833333334</v>
+        <v>45773.35416666666</v>
       </c>
       <c r="F532">
         <v>45</v>
       </c>
       <c r="G532" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H532" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="I532">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J532">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K532">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L532">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M532">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N532">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O532" t="s">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="P532" t="s">
-        <v>224</v>
+        <v>556</v>
       </c>
       <c r="Q532">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="R532">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S532">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="T532">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="U532">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V532">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="W532">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="X532">
+        <v>10</v>
+      </c>
+      <c r="Y532">
+        <v>1.06</v>
+      </c>
+      <c r="Z532">
+        <v>4.7</v>
+      </c>
+      <c r="AA532">
+        <v>4.1</v>
+      </c>
+      <c r="AB532">
+        <v>1.64</v>
+      </c>
+      <c r="AC532">
+        <v>0</v>
+      </c>
+      <c r="AD532">
+        <v>0</v>
+      </c>
+      <c r="AE532">
+        <v>0</v>
+      </c>
+      <c r="AF532">
+        <v>0</v>
+      </c>
+      <c r="AG532">
+        <v>2.25</v>
+      </c>
+      <c r="AH532">
+        <v>1.6</v>
+      </c>
+      <c r="AI532">
+        <v>2.1</v>
+      </c>
+      <c r="AJ532">
+        <v>1.67</v>
+      </c>
+      <c r="AK532">
+        <v>0</v>
+      </c>
+      <c r="AL532">
+        <v>0</v>
+      </c>
+      <c r="AM532">
+        <v>0</v>
+      </c>
+      <c r="AN532">
+        <v>1.32</v>
+      </c>
+      <c r="AO532">
+        <v>2.09</v>
+      </c>
+      <c r="AP532">
+        <v>1.26</v>
+      </c>
+      <c r="AQ532">
+        <v>2.13</v>
+      </c>
+      <c r="AR532">
+        <v>1.57</v>
+      </c>
+      <c r="AS532">
+        <v>1.31</v>
+      </c>
+      <c r="AT532">
+        <v>2.88</v>
+      </c>
+      <c r="AU532">
+        <v>3</v>
+      </c>
+      <c r="AV532">
+        <v>11</v>
+      </c>
+      <c r="AW532">
+        <v>7</v>
+      </c>
+      <c r="AX532">
+        <v>6</v>
+      </c>
+      <c r="AY532">
+        <v>11</v>
+      </c>
+      <c r="AZ532">
+        <v>20</v>
+      </c>
+      <c r="BA532">
+        <v>2</v>
+      </c>
+      <c r="BB532">
+        <v>6</v>
+      </c>
+      <c r="BC532">
         <v>8</v>
-      </c>
-      <c r="Y532">
-        <v>1.08</v>
-      </c>
-      <c r="Z532">
-        <v>1.96</v>
-      </c>
-      <c r="AA532">
-        <v>3.53</v>
-      </c>
-      <c r="AB532">
-        <v>3.62</v>
-      </c>
-      <c r="AC532">
-        <v>0</v>
-      </c>
-      <c r="AD532">
-        <v>0</v>
-      </c>
-      <c r="AE532">
-        <v>0</v>
-      </c>
-      <c r="AF532">
-        <v>0</v>
-      </c>
-      <c r="AG532">
-        <v>1.98</v>
-      </c>
-      <c r="AH532">
-        <v>1.77</v>
-      </c>
-      <c r="AI532">
-        <v>1.8</v>
-      </c>
-      <c r="AJ532">
-        <v>1.91</v>
-      </c>
-      <c r="AK532">
-        <v>0</v>
-      </c>
-      <c r="AL532">
-        <v>0</v>
-      </c>
-      <c r="AM532">
-        <v>0</v>
-      </c>
-      <c r="AN532">
-        <v>1.14</v>
-      </c>
-      <c r="AO532">
-        <v>0.59</v>
-      </c>
-      <c r="AP532">
-        <v>1.13</v>
-      </c>
-      <c r="AQ532">
-        <v>0.61</v>
-      </c>
-      <c r="AR532">
-        <v>1.55</v>
-      </c>
-      <c r="AS532">
-        <v>1.16</v>
-      </c>
-      <c r="AT532">
-        <v>2.71</v>
-      </c>
-      <c r="AU532">
-        <v>6</v>
-      </c>
-      <c r="AV532">
-        <v>2</v>
-      </c>
-      <c r="AW532">
-        <v>12</v>
-      </c>
-      <c r="AX532">
-        <v>1</v>
-      </c>
-      <c r="AY532">
-        <v>21</v>
-      </c>
-      <c r="AZ532">
-        <v>3</v>
-      </c>
-      <c r="BA532">
-        <v>5</v>
-      </c>
-      <c r="BB532">
-        <v>5</v>
-      </c>
-      <c r="BC532">
-        <v>10</v>
       </c>
       <c r="BD532">
         <v>0</v>
@@ -111670,7 +111673,7 @@
         <v>532</v>
       </c>
       <c r="B533">
-        <v>7479278</v>
+        <v>7479280</v>
       </c>
       <c r="C533" t="s">
         <v>68</v>
@@ -111685,43 +111688,43 @@
         <v>45</v>
       </c>
       <c r="G533" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H533" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I533">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J533">
         <v>1</v>
       </c>
       <c r="K533">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L533">
         <v>1</v>
       </c>
       <c r="M533">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N533">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O533" t="s">
-        <v>302</v>
+        <v>178</v>
       </c>
       <c r="P533" t="s">
-        <v>556</v>
+        <v>224</v>
       </c>
       <c r="Q533">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="R533">
         <v>2.2</v>
       </c>
       <c r="S533">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="T533">
         <v>1.4</v>
@@ -111730,10 +111733,10 @@
         <v>2.75</v>
       </c>
       <c r="V533">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W533">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X533">
         <v>8</v>
@@ -111742,13 +111745,13 @@
         <v>1.08</v>
       </c>
       <c r="Z533">
-        <v>1.74</v>
+        <v>1.96</v>
       </c>
       <c r="AA533">
-        <v>3.63</v>
+        <v>3.53</v>
       </c>
       <c r="AB533">
-        <v>4.5</v>
+        <v>3.62</v>
       </c>
       <c r="AC533">
         <v>0</v>
@@ -111763,16 +111766,16 @@
         <v>0</v>
       </c>
       <c r="AG533">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="AH533">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="AI533">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AJ533">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AK533">
         <v>0</v>
@@ -111784,52 +111787,52 @@
         <v>0</v>
       </c>
       <c r="AN533">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="AO533">
-        <v>0.41</v>
+        <v>0.59</v>
       </c>
       <c r="AP533">
-        <v>1.43</v>
+        <v>1.13</v>
       </c>
       <c r="AQ533">
-        <v>0.52</v>
+        <v>0.61</v>
       </c>
       <c r="AR533">
-        <v>1.31</v>
+        <v>1.55</v>
       </c>
       <c r="AS533">
-        <v>0.84</v>
+        <v>1.16</v>
       </c>
       <c r="AT533">
-        <v>2.15</v>
+        <v>2.71</v>
       </c>
       <c r="AU533">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV533">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW533">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX533">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY533">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AZ533">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BA533">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BB533">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC533">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD533">
         <v>0</v>
@@ -111876,7 +111879,7 @@
         <v>533</v>
       </c>
       <c r="B534">
-        <v>7479276</v>
+        <v>7479278</v>
       </c>
       <c r="C534" t="s">
         <v>68</v>
@@ -111891,16 +111894,16 @@
         <v>45</v>
       </c>
       <c r="G534" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H534" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I534">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J534">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K534">
         <v>1</v>
@@ -111909,130 +111912,130 @@
         <v>1</v>
       </c>
       <c r="M534">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N534">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O534" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="P534" t="s">
-        <v>95</v>
+        <v>557</v>
       </c>
       <c r="Q534">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="R534">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="S534">
+        <v>4.75</v>
+      </c>
+      <c r="T534">
+        <v>1.4</v>
+      </c>
+      <c r="U534">
+        <v>2.75</v>
+      </c>
+      <c r="V534">
+        <v>3</v>
+      </c>
+      <c r="W534">
+        <v>1.36</v>
+      </c>
+      <c r="X534">
+        <v>8</v>
+      </c>
+      <c r="Y534">
+        <v>1.08</v>
+      </c>
+      <c r="Z534">
+        <v>1.74</v>
+      </c>
+      <c r="AA534">
+        <v>3.63</v>
+      </c>
+      <c r="AB534">
+        <v>4.5</v>
+      </c>
+      <c r="AC534">
+        <v>0</v>
+      </c>
+      <c r="AD534">
+        <v>0</v>
+      </c>
+      <c r="AE534">
+        <v>0</v>
+      </c>
+      <c r="AF534">
+        <v>0</v>
+      </c>
+      <c r="AG534">
+        <v>1.92</v>
+      </c>
+      <c r="AH534">
+        <v>1.82</v>
+      </c>
+      <c r="AI534">
+        <v>1.83</v>
+      </c>
+      <c r="AJ534">
+        <v>1.83</v>
+      </c>
+      <c r="AK534">
+        <v>0</v>
+      </c>
+      <c r="AL534">
+        <v>0</v>
+      </c>
+      <c r="AM534">
+        <v>0</v>
+      </c>
+      <c r="AN534">
+        <v>1.5</v>
+      </c>
+      <c r="AO534">
+        <v>0.41</v>
+      </c>
+      <c r="AP534">
+        <v>1.43</v>
+      </c>
+      <c r="AQ534">
+        <v>0.52</v>
+      </c>
+      <c r="AR534">
+        <v>1.31</v>
+      </c>
+      <c r="AS534">
+        <v>0.84</v>
+      </c>
+      <c r="AT534">
+        <v>2.15</v>
+      </c>
+      <c r="AU534">
+        <v>8</v>
+      </c>
+      <c r="AV534">
         <v>4</v>
       </c>
-      <c r="T534">
-        <v>1.53</v>
-      </c>
-      <c r="U534">
-        <v>2.38</v>
-      </c>
-      <c r="V534">
-        <v>3.5</v>
-      </c>
-      <c r="W534">
-        <v>1.29</v>
-      </c>
-      <c r="X534">
-        <v>11</v>
-      </c>
-      <c r="Y534">
-        <v>1.05</v>
-      </c>
-      <c r="Z534">
-        <v>2.35</v>
-      </c>
-      <c r="AA534">
-        <v>2.94</v>
-      </c>
-      <c r="AB534">
-        <v>3.28</v>
-      </c>
-      <c r="AC534">
-        <v>0</v>
-      </c>
-      <c r="AD534">
-        <v>0</v>
-      </c>
-      <c r="AE534">
-        <v>2.02</v>
-      </c>
-      <c r="AF534">
-        <v>1.86</v>
-      </c>
-      <c r="AG534">
-        <v>2.2</v>
-      </c>
-      <c r="AH534">
-        <v>1.61</v>
-      </c>
-      <c r="AI534">
-        <v>2</v>
-      </c>
-      <c r="AJ534">
-        <v>1.73</v>
-      </c>
-      <c r="AK534">
-        <v>0</v>
-      </c>
-      <c r="AL534">
-        <v>0</v>
-      </c>
-      <c r="AM534">
-        <v>0</v>
-      </c>
-      <c r="AN534">
-        <v>1.68</v>
-      </c>
-      <c r="AO534">
-        <v>1.14</v>
-      </c>
-      <c r="AP534">
-        <v>1.74</v>
-      </c>
-      <c r="AQ534">
-        <v>1.09</v>
-      </c>
-      <c r="AR534">
-        <v>1.41</v>
-      </c>
-      <c r="AS534">
-        <v>1.16</v>
-      </c>
-      <c r="AT534">
-        <v>2.57</v>
-      </c>
-      <c r="AU534">
+      <c r="AW534">
+        <v>13</v>
+      </c>
+      <c r="AX534">
+        <v>2</v>
+      </c>
+      <c r="AY534">
+        <v>24</v>
+      </c>
+      <c r="AZ534">
         <v>7</v>
       </c>
-      <c r="AV534">
-        <v>5</v>
-      </c>
-      <c r="AW534">
-        <v>12</v>
-      </c>
-      <c r="AX534">
-        <v>7</v>
-      </c>
-      <c r="AY534">
-        <v>25</v>
-      </c>
-      <c r="AZ534">
-        <v>14</v>
-      </c>
       <c r="BA534">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BB534">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BC534">
         <v>11</v>
@@ -112082,7 +112085,7 @@
         <v>534</v>
       </c>
       <c r="B535">
-        <v>7479275</v>
+        <v>7479277</v>
       </c>
       <c r="C535" t="s">
         <v>68</v>
@@ -112097,70 +112100,70 @@
         <v>45</v>
       </c>
       <c r="G535" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H535" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I535">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J535">
         <v>0</v>
       </c>
       <c r="K535">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L535">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M535">
         <v>0</v>
       </c>
       <c r="N535">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O535" t="s">
-        <v>95</v>
+        <v>402</v>
       </c>
       <c r="P535" t="s">
         <v>95</v>
       </c>
       <c r="Q535">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="R535">
+        <v>2.05</v>
+      </c>
+      <c r="S535">
+        <v>3.4</v>
+      </c>
+      <c r="T535">
+        <v>1.5</v>
+      </c>
+      <c r="U535">
         <v>2.5</v>
       </c>
-      <c r="S535">
-        <v>5.5</v>
-      </c>
-      <c r="T535">
-        <v>1.29</v>
-      </c>
-      <c r="U535">
-        <v>3.5</v>
-      </c>
       <c r="V535">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="W535">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="X535">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="Y535">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="Z535">
-        <v>2.01</v>
+        <v>4.3</v>
       </c>
       <c r="AA535">
-        <v>3.59</v>
+        <v>3.47</v>
       </c>
       <c r="AB535">
-        <v>3.41</v>
+        <v>1.83</v>
       </c>
       <c r="AC535">
         <v>0</v>
@@ -112175,16 +112178,16 @@
         <v>0</v>
       </c>
       <c r="AG535">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="AH535">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="AI535">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="AJ535">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="AK535">
         <v>0</v>
@@ -112196,52 +112199,52 @@
         <v>0</v>
       </c>
       <c r="AN535">
-        <v>1.73</v>
+        <v>1.59</v>
       </c>
       <c r="AO535">
-        <v>0.82</v>
+        <v>1.5</v>
       </c>
       <c r="AP535">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AQ535">
-        <v>0.83</v>
+        <v>1.5</v>
       </c>
       <c r="AR535">
-        <v>1.66</v>
+        <v>1.23</v>
       </c>
       <c r="AS535">
-        <v>1.12</v>
+        <v>1.27</v>
       </c>
       <c r="AT535">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="AU535">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV535">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AW535">
         <v>10</v>
       </c>
       <c r="AX535">
+        <v>11</v>
+      </c>
+      <c r="AY535">
+        <v>17</v>
+      </c>
+      <c r="AZ535">
+        <v>11</v>
+      </c>
+      <c r="BA535">
+        <v>3</v>
+      </c>
+      <c r="BB535">
         <v>6</v>
       </c>
-      <c r="AY535">
-        <v>18</v>
-      </c>
-      <c r="AZ535">
-        <v>12</v>
-      </c>
-      <c r="BA535">
-        <v>10</v>
-      </c>
-      <c r="BB535">
-        <v>3</v>
-      </c>
       <c r="BC535">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD535">
         <v>0</v>
@@ -112288,7 +112291,7 @@
         <v>535</v>
       </c>
       <c r="B536">
-        <v>7479272</v>
+        <v>7479276</v>
       </c>
       <c r="C536" t="s">
         <v>68</v>
@@ -112303,55 +112306,55 @@
         <v>45</v>
       </c>
       <c r="G536" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H536" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I536">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J536">
         <v>0</v>
       </c>
       <c r="K536">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L536">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M536">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N536">
         <v>1</v>
       </c>
       <c r="O536" t="s">
+        <v>281</v>
+      </c>
+      <c r="P536" t="s">
         <v>95</v>
       </c>
-      <c r="P536" t="s">
-        <v>305</v>
-      </c>
       <c r="Q536">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="R536">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S536">
         <v>4</v>
       </c>
       <c r="T536">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U536">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V536">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="W536">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X536">
         <v>11</v>
@@ -112360,37 +112363,37 @@
         <v>1.05</v>
       </c>
       <c r="Z536">
-        <v>2.17</v>
+        <v>2.35</v>
       </c>
       <c r="AA536">
-        <v>3.18</v>
+        <v>2.94</v>
       </c>
       <c r="AB536">
-        <v>3.4</v>
+        <v>3.28</v>
       </c>
       <c r="AC536">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="AD536">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="AE536">
-        <v>1.5</v>
+        <v>2.02</v>
       </c>
       <c r="AF536">
-        <v>2.45</v>
+        <v>1.86</v>
       </c>
       <c r="AG536">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="AH536">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="AI536">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AJ536">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AK536">
         <v>0</v>
@@ -112402,52 +112405,52 @@
         <v>0</v>
       </c>
       <c r="AN536">
-        <v>1.05</v>
+        <v>1.68</v>
       </c>
       <c r="AO536">
-        <v>0.68</v>
+        <v>1.14</v>
       </c>
       <c r="AP536">
-        <v>1</v>
+        <v>1.74</v>
       </c>
       <c r="AQ536">
-        <v>0.78</v>
+        <v>1.09</v>
       </c>
       <c r="AR536">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="AS536">
-        <v>1.09</v>
+        <v>1.16</v>
       </c>
       <c r="AT536">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AU536">
+        <v>7</v>
+      </c>
+      <c r="AV536">
+        <v>5</v>
+      </c>
+      <c r="AW536">
+        <v>12</v>
+      </c>
+      <c r="AX536">
+        <v>7</v>
+      </c>
+      <c r="AY536">
+        <v>25</v>
+      </c>
+      <c r="AZ536">
+        <v>14</v>
+      </c>
+      <c r="BA536">
         <v>4</v>
       </c>
-      <c r="AV536">
-        <v>2</v>
-      </c>
-      <c r="AW536">
-        <v>10</v>
-      </c>
-      <c r="AX536">
-        <v>5</v>
-      </c>
-      <c r="AY536">
-        <v>15</v>
-      </c>
-      <c r="AZ536">
-        <v>8</v>
-      </c>
-      <c r="BA536">
-        <v>5</v>
-      </c>
       <c r="BB536">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BC536">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD536">
         <v>0</v>
@@ -112494,7 +112497,7 @@
         <v>536</v>
       </c>
       <c r="B537">
-        <v>7479271</v>
+        <v>7479275</v>
       </c>
       <c r="C537" t="s">
         <v>68</v>
@@ -112509,10 +112512,10 @@
         <v>45</v>
       </c>
       <c r="G537" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H537" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="I537">
         <v>0</v>
@@ -112539,121 +112542,121 @@
         <v>95</v>
       </c>
       <c r="Q537">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="R537">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="S537">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="T537">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="U537">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="V537">
+        <v>2.25</v>
+      </c>
+      <c r="W537">
+        <v>1.57</v>
+      </c>
+      <c r="X537">
+        <v>5.5</v>
+      </c>
+      <c r="Y537">
+        <v>1.14</v>
+      </c>
+      <c r="Z537">
+        <v>2.01</v>
+      </c>
+      <c r="AA537">
+        <v>3.59</v>
+      </c>
+      <c r="AB537">
+        <v>3.41</v>
+      </c>
+      <c r="AC537">
+        <v>0</v>
+      </c>
+      <c r="AD537">
+        <v>0</v>
+      </c>
+      <c r="AE537">
+        <v>0</v>
+      </c>
+      <c r="AF537">
+        <v>0</v>
+      </c>
+      <c r="AG537">
+        <v>1.55</v>
+      </c>
+      <c r="AH537">
+        <v>2.3</v>
+      </c>
+      <c r="AI537">
+        <v>1.67</v>
+      </c>
+      <c r="AJ537">
+        <v>2.1</v>
+      </c>
+      <c r="AK537">
+        <v>0</v>
+      </c>
+      <c r="AL537">
+        <v>0</v>
+      </c>
+      <c r="AM537">
+        <v>0</v>
+      </c>
+      <c r="AN537">
+        <v>1.73</v>
+      </c>
+      <c r="AO537">
+        <v>0.82</v>
+      </c>
+      <c r="AP537">
+        <v>1.7</v>
+      </c>
+      <c r="AQ537">
+        <v>0.83</v>
+      </c>
+      <c r="AR537">
+        <v>1.66</v>
+      </c>
+      <c r="AS537">
+        <v>1.12</v>
+      </c>
+      <c r="AT537">
+        <v>2.78</v>
+      </c>
+      <c r="AU537">
+        <v>6</v>
+      </c>
+      <c r="AV537">
+        <v>5</v>
+      </c>
+      <c r="AW537">
+        <v>10</v>
+      </c>
+      <c r="AX537">
+        <v>6</v>
+      </c>
+      <c r="AY537">
+        <v>18</v>
+      </c>
+      <c r="AZ537">
+        <v>12</v>
+      </c>
+      <c r="BA537">
+        <v>10</v>
+      </c>
+      <c r="BB537">
         <v>3</v>
       </c>
-      <c r="W537">
-        <v>1.36</v>
-      </c>
-      <c r="X537">
-        <v>8</v>
-      </c>
-      <c r="Y537">
-        <v>1.08</v>
-      </c>
-      <c r="Z537">
-        <v>2.64</v>
-      </c>
-      <c r="AA537">
-        <v>3.35</v>
-      </c>
-      <c r="AB537">
-        <v>2.55</v>
-      </c>
-      <c r="AC537">
-        <v>0</v>
-      </c>
-      <c r="AD537">
-        <v>0</v>
-      </c>
-      <c r="AE537">
-        <v>0</v>
-      </c>
-      <c r="AF537">
-        <v>0</v>
-      </c>
-      <c r="AG537">
-        <v>1.94</v>
-      </c>
-      <c r="AH537">
-        <v>1.8</v>
-      </c>
-      <c r="AI537">
-        <v>1.8</v>
-      </c>
-      <c r="AJ537">
-        <v>1.91</v>
-      </c>
-      <c r="AK537">
-        <v>0</v>
-      </c>
-      <c r="AL537">
-        <v>0</v>
-      </c>
-      <c r="AM537">
-        <v>0</v>
-      </c>
-      <c r="AN537">
-        <v>1.18</v>
-      </c>
-      <c r="AO537">
-        <v>1</v>
-      </c>
-      <c r="AP537">
-        <v>1.17</v>
-      </c>
-      <c r="AQ537">
-        <v>1</v>
-      </c>
-      <c r="AR537">
-        <v>1.53</v>
-      </c>
-      <c r="AS537">
-        <v>1.23</v>
-      </c>
-      <c r="AT537">
-        <v>2.76</v>
-      </c>
-      <c r="AU537">
-        <v>8</v>
-      </c>
-      <c r="AV537">
-        <v>9</v>
-      </c>
-      <c r="AW537">
-        <v>12</v>
-      </c>
-      <c r="AX537">
-        <v>12</v>
-      </c>
-      <c r="AY537">
-        <v>22</v>
-      </c>
-      <c r="AZ537">
-        <v>25</v>
-      </c>
-      <c r="BA537">
-        <v>9</v>
-      </c>
-      <c r="BB537">
-        <v>5</v>
-      </c>
       <c r="BC537">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD537">
         <v>0</v>
@@ -112700,7 +112703,7 @@
         <v>537</v>
       </c>
       <c r="B538">
-        <v>7479270</v>
+        <v>7479272</v>
       </c>
       <c r="C538" t="s">
         <v>68</v>
@@ -112715,10 +112718,10 @@
         <v>45</v>
       </c>
       <c r="G538" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H538" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I538">
         <v>0</v>
@@ -112730,136 +112733,136 @@
         <v>0</v>
       </c>
       <c r="L538">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M538">
         <v>1</v>
       </c>
       <c r="N538">
+        <v>1</v>
+      </c>
+      <c r="O538" t="s">
+        <v>95</v>
+      </c>
+      <c r="P538" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q538">
+        <v>3.25</v>
+      </c>
+      <c r="R538">
+        <v>1.91</v>
+      </c>
+      <c r="S538">
+        <v>4</v>
+      </c>
+      <c r="T538">
+        <v>1.57</v>
+      </c>
+      <c r="U538">
+        <v>2.25</v>
+      </c>
+      <c r="V538">
+        <v>3.75</v>
+      </c>
+      <c r="W538">
+        <v>1.25</v>
+      </c>
+      <c r="X538">
+        <v>11</v>
+      </c>
+      <c r="Y538">
+        <v>1.05</v>
+      </c>
+      <c r="Z538">
+        <v>2.17</v>
+      </c>
+      <c r="AA538">
+        <v>3.18</v>
+      </c>
+      <c r="AB538">
+        <v>3.4</v>
+      </c>
+      <c r="AC538">
+        <v>2.24</v>
+      </c>
+      <c r="AD538">
+        <v>1.69</v>
+      </c>
+      <c r="AE538">
+        <v>1.5</v>
+      </c>
+      <c r="AF538">
+        <v>2.45</v>
+      </c>
+      <c r="AG538">
+        <v>2.45</v>
+      </c>
+      <c r="AH538">
+        <v>1.55</v>
+      </c>
+      <c r="AI538">
+        <v>2.1</v>
+      </c>
+      <c r="AJ538">
+        <v>1.67</v>
+      </c>
+      <c r="AK538">
+        <v>0</v>
+      </c>
+      <c r="AL538">
+        <v>0</v>
+      </c>
+      <c r="AM538">
+        <v>0</v>
+      </c>
+      <c r="AN538">
+        <v>1.05</v>
+      </c>
+      <c r="AO538">
+        <v>0.68</v>
+      </c>
+      <c r="AP538">
+        <v>1</v>
+      </c>
+      <c r="AQ538">
+        <v>0.78</v>
+      </c>
+      <c r="AR538">
+        <v>1.45</v>
+      </c>
+      <c r="AS538">
+        <v>1.09</v>
+      </c>
+      <c r="AT538">
+        <v>2.54</v>
+      </c>
+      <c r="AU538">
+        <v>4</v>
+      </c>
+      <c r="AV538">
+        <v>2</v>
+      </c>
+      <c r="AW538">
+        <v>10</v>
+      </c>
+      <c r="AX538">
+        <v>5</v>
+      </c>
+      <c r="AY538">
+        <v>15</v>
+      </c>
+      <c r="AZ538">
+        <v>8</v>
+      </c>
+      <c r="BA538">
+        <v>5</v>
+      </c>
+      <c r="BB538">
         <v>3</v>
       </c>
-      <c r="O538" t="s">
-        <v>402</v>
-      </c>
-      <c r="P538" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q538">
-        <v>2.3</v>
-      </c>
-      <c r="R538">
-        <v>2.2</v>
-      </c>
-      <c r="S538">
-        <v>5</v>
-      </c>
-      <c r="T538">
-        <v>1.4</v>
-      </c>
-      <c r="U538">
-        <v>2.75</v>
-      </c>
-      <c r="V538">
-        <v>3</v>
-      </c>
-      <c r="W538">
-        <v>1.36</v>
-      </c>
-      <c r="X538">
+      <c r="BC538">
         <v>8</v>
-      </c>
-      <c r="Y538">
-        <v>1.08</v>
-      </c>
-      <c r="Z538">
-        <v>2.16</v>
-      </c>
-      <c r="AA538">
-        <v>3.25</v>
-      </c>
-      <c r="AB538">
-        <v>3.36</v>
-      </c>
-      <c r="AC538">
-        <v>0</v>
-      </c>
-      <c r="AD538">
-        <v>0</v>
-      </c>
-      <c r="AE538">
-        <v>0</v>
-      </c>
-      <c r="AF538">
-        <v>0</v>
-      </c>
-      <c r="AG538">
-        <v>1.98</v>
-      </c>
-      <c r="AH538">
-        <v>1.77</v>
-      </c>
-      <c r="AI538">
-        <v>1.83</v>
-      </c>
-      <c r="AJ538">
-        <v>1.83</v>
-      </c>
-      <c r="AK538">
-        <v>0</v>
-      </c>
-      <c r="AL538">
-        <v>0</v>
-      </c>
-      <c r="AM538">
-        <v>0</v>
-      </c>
-      <c r="AN538">
-        <v>1.68</v>
-      </c>
-      <c r="AO538">
-        <v>0.77</v>
-      </c>
-      <c r="AP538">
-        <v>1.74</v>
-      </c>
-      <c r="AQ538">
-        <v>0.74</v>
-      </c>
-      <c r="AR538">
-        <v>1.37</v>
-      </c>
-      <c r="AS538">
-        <v>1.26</v>
-      </c>
-      <c r="AT538">
-        <v>2.63</v>
-      </c>
-      <c r="AU538">
-        <v>6</v>
-      </c>
-      <c r="AV538">
-        <v>4</v>
-      </c>
-      <c r="AW538">
-        <v>6</v>
-      </c>
-      <c r="AX538">
-        <v>6</v>
-      </c>
-      <c r="AY538">
-        <v>13</v>
-      </c>
-      <c r="AZ538">
-        <v>13</v>
-      </c>
-      <c r="BA538">
-        <v>4</v>
-      </c>
-      <c r="BB538">
-        <v>6</v>
-      </c>
-      <c r="BC538">
-        <v>10</v>
       </c>
       <c r="BD538">
         <v>0</v>
@@ -112906,7 +112909,7 @@
         <v>538</v>
       </c>
       <c r="B539">
-        <v>7479277</v>
+        <v>7479271</v>
       </c>
       <c r="C539" t="s">
         <v>68</v>
@@ -112921,70 +112924,70 @@
         <v>45</v>
       </c>
       <c r="G539" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H539" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I539">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J539">
         <v>0</v>
       </c>
       <c r="K539">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L539">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M539">
         <v>0</v>
       </c>
       <c r="N539">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O539" t="s">
-        <v>403</v>
+        <v>95</v>
       </c>
       <c r="P539" t="s">
         <v>95</v>
       </c>
       <c r="Q539">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="R539">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S539">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="T539">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="U539">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V539">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="W539">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="X539">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y539">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="Z539">
-        <v>4.3</v>
+        <v>2.64</v>
       </c>
       <c r="AA539">
-        <v>3.47</v>
+        <v>3.35</v>
       </c>
       <c r="AB539">
-        <v>1.83</v>
+        <v>2.55</v>
       </c>
       <c r="AC539">
         <v>0</v>
@@ -112999,16 +113002,16 @@
         <v>0</v>
       </c>
       <c r="AG539">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="AH539">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="AI539">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AJ539">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AK539">
         <v>0</v>
@@ -113020,52 +113023,52 @@
         <v>0</v>
       </c>
       <c r="AN539">
-        <v>1.59</v>
+        <v>1.18</v>
       </c>
       <c r="AO539">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP539">
-        <v>1.65</v>
+        <v>1.17</v>
       </c>
       <c r="AQ539">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR539">
+        <v>1.53</v>
+      </c>
+      <c r="AS539">
         <v>1.23</v>
       </c>
-      <c r="AS539">
-        <v>1.27</v>
-      </c>
       <c r="AT539">
-        <v>2.5</v>
+        <v>2.76</v>
       </c>
       <c r="AU539">
+        <v>8</v>
+      </c>
+      <c r="AV539">
+        <v>9</v>
+      </c>
+      <c r="AW539">
+        <v>12</v>
+      </c>
+      <c r="AX539">
+        <v>12</v>
+      </c>
+      <c r="AY539">
+        <v>22</v>
+      </c>
+      <c r="AZ539">
+        <v>25</v>
+      </c>
+      <c r="BA539">
+        <v>9</v>
+      </c>
+      <c r="BB539">
         <v>5</v>
       </c>
-      <c r="AV539">
-        <v>0</v>
-      </c>
-      <c r="AW539">
-        <v>10</v>
-      </c>
-      <c r="AX539">
-        <v>11</v>
-      </c>
-      <c r="AY539">
-        <v>17</v>
-      </c>
-      <c r="AZ539">
-        <v>11</v>
-      </c>
-      <c r="BA539">
-        <v>3</v>
-      </c>
-      <c r="BB539">
-        <v>6</v>
-      </c>
       <c r="BC539">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BD539">
         <v>0</v>
@@ -113112,7 +113115,7 @@
         <v>539</v>
       </c>
       <c r="B540">
-        <v>7479273</v>
+        <v>7479270</v>
       </c>
       <c r="C540" t="s">
         <v>68</v>
@@ -113121,76 +113124,76 @@
         <v>69</v>
       </c>
       <c r="E540" s="2">
-        <v>45775.66666666666</v>
+        <v>45773.45833333334</v>
       </c>
       <c r="F540">
         <v>45</v>
       </c>
       <c r="G540" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H540" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I540">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J540">
         <v>0</v>
       </c>
       <c r="K540">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L540">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M540">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N540">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O540" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="P540" t="s">
-        <v>95</v>
+        <v>273</v>
       </c>
       <c r="Q540">
+        <v>2.3</v>
+      </c>
+      <c r="R540">
         <v>2.2</v>
       </c>
-      <c r="R540">
-        <v>2.3</v>
-      </c>
       <c r="S540">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T540">
+        <v>1.4</v>
+      </c>
+      <c r="U540">
+        <v>2.75</v>
+      </c>
+      <c r="V540">
+        <v>3</v>
+      </c>
+      <c r="W540">
         <v>1.36</v>
       </c>
-      <c r="U540">
-        <v>3</v>
-      </c>
-      <c r="V540">
-        <v>2.75</v>
-      </c>
-      <c r="W540">
-        <v>1.4</v>
-      </c>
       <c r="X540">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y540">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z540">
-        <v>1.57</v>
+        <v>2.16</v>
       </c>
       <c r="AA540">
-        <v>3.94</v>
+        <v>3.25</v>
       </c>
       <c r="AB540">
-        <v>5.6</v>
+        <v>3.36</v>
       </c>
       <c r="AC540">
         <v>0</v>
@@ -113205,10 +113208,10 @@
         <v>0</v>
       </c>
       <c r="AG540">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="AH540">
-        <v>1.94</v>
+        <v>1.77</v>
       </c>
       <c r="AI540">
         <v>1.83</v>
@@ -113226,52 +113229,52 @@
         <v>0</v>
       </c>
       <c r="AN540">
-        <v>2.5</v>
+        <v>1.68</v>
       </c>
       <c r="AO540">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="AP540">
-        <v>2.52</v>
+        <v>1.74</v>
       </c>
       <c r="AQ540">
-        <v>0.92</v>
+        <v>0.74</v>
       </c>
       <c r="AR540">
-        <v>1.97</v>
+        <v>1.37</v>
       </c>
       <c r="AS540">
         <v>1.26</v>
       </c>
       <c r="AT540">
-        <v>3.23</v>
+        <v>2.63</v>
       </c>
       <c r="AU540">
+        <v>6</v>
+      </c>
+      <c r="AV540">
+        <v>4</v>
+      </c>
+      <c r="AW540">
+        <v>6</v>
+      </c>
+      <c r="AX540">
+        <v>6</v>
+      </c>
+      <c r="AY540">
         <v>13</v>
       </c>
-      <c r="AV540">
-        <v>2</v>
-      </c>
-      <c r="AW540">
-        <v>11</v>
-      </c>
-      <c r="AX540">
-        <v>2</v>
-      </c>
-      <c r="AY540">
-        <v>28</v>
-      </c>
       <c r="AZ540">
+        <v>13</v>
+      </c>
+      <c r="BA540">
         <v>4</v>
       </c>
-      <c r="BA540">
-        <v>11</v>
-      </c>
       <c r="BB540">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BC540">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD540">
         <v>0</v>
@@ -113318,7 +113321,7 @@
         <v>540</v>
       </c>
       <c r="B541">
-        <v>7479290</v>
+        <v>7479273</v>
       </c>
       <c r="C541" t="s">
         <v>68</v>
@@ -113327,55 +113330,55 @@
         <v>69</v>
       </c>
       <c r="E541" s="2">
-        <v>45780.35416666666</v>
+        <v>45775.66666666666</v>
       </c>
       <c r="F541">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G541" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H541" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="I541">
         <v>1</v>
       </c>
       <c r="J541">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K541">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L541">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M541">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N541">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O541" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P541" t="s">
-        <v>557</v>
+        <v>95</v>
       </c>
       <c r="Q541">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R541">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S541">
         <v>5.5</v>
       </c>
       <c r="T541">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U541">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V541">
         <v>2.75</v>
@@ -113384,139 +113387,139 @@
         <v>1.4</v>
       </c>
       <c r="X541">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y541">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z541">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA541">
+        <v>3.94</v>
+      </c>
+      <c r="AB541">
+        <v>5.6</v>
+      </c>
+      <c r="AC541">
+        <v>0</v>
+      </c>
+      <c r="AD541">
+        <v>0</v>
+      </c>
+      <c r="AE541">
+        <v>0</v>
+      </c>
+      <c r="AF541">
+        <v>0</v>
+      </c>
+      <c r="AG541">
+        <v>1.8</v>
+      </c>
+      <c r="AH541">
+        <v>1.94</v>
+      </c>
+      <c r="AI541">
+        <v>1.83</v>
+      </c>
+      <c r="AJ541">
+        <v>1.83</v>
+      </c>
+      <c r="AK541">
+        <v>0</v>
+      </c>
+      <c r="AL541">
+        <v>0</v>
+      </c>
+      <c r="AM541">
+        <v>0</v>
+      </c>
+      <c r="AN541">
+        <v>2.5</v>
+      </c>
+      <c r="AO541">
+        <v>1</v>
+      </c>
+      <c r="AP541">
+        <v>2.52</v>
+      </c>
+      <c r="AQ541">
+        <v>0.92</v>
+      </c>
+      <c r="AR541">
+        <v>1.97</v>
+      </c>
+      <c r="AS541">
+        <v>1.26</v>
+      </c>
+      <c r="AT541">
+        <v>3.23</v>
+      </c>
+      <c r="AU541">
+        <v>13</v>
+      </c>
+      <c r="AV541">
+        <v>2</v>
+      </c>
+      <c r="AW541">
+        <v>11</v>
+      </c>
+      <c r="AX541">
+        <v>2</v>
+      </c>
+      <c r="AY541">
+        <v>28</v>
+      </c>
+      <c r="AZ541">
         <v>4</v>
       </c>
-      <c r="AB541">
-        <v>4.9</v>
-      </c>
-      <c r="AC541">
-        <v>1.05</v>
-      </c>
-      <c r="AD541">
-        <v>9.5</v>
-      </c>
-      <c r="AE541">
-        <v>1.3</v>
-      </c>
-      <c r="AF541">
-        <v>3.4</v>
-      </c>
-      <c r="AG541">
-        <v>1.94</v>
-      </c>
-      <c r="AH541">
-        <v>1.8</v>
-      </c>
-      <c r="AI541">
-        <v>2</v>
-      </c>
-      <c r="AJ541">
-        <v>1.73</v>
-      </c>
-      <c r="AK541">
-        <v>1.17</v>
-      </c>
-      <c r="AL541">
-        <v>1.26</v>
-      </c>
-      <c r="AM541">
-        <v>2.15</v>
-      </c>
-      <c r="AN541">
-        <v>1.59</v>
-      </c>
-      <c r="AO541">
-        <v>0.64</v>
-      </c>
-      <c r="AP541">
-        <v>1.57</v>
-      </c>
-      <c r="AQ541">
-        <v>0.65</v>
-      </c>
-      <c r="AR541">
-        <v>1.42</v>
-      </c>
-      <c r="AS541">
-        <v>0.99</v>
-      </c>
-      <c r="AT541">
-        <v>2.41</v>
-      </c>
-      <c r="AU541">
-        <v>6</v>
-      </c>
-      <c r="AV541">
-        <v>6</v>
-      </c>
-      <c r="AW541">
-        <v>8</v>
-      </c>
-      <c r="AX541">
-        <v>3</v>
-      </c>
-      <c r="AY541">
-        <v>16</v>
-      </c>
-      <c r="AZ541">
-        <v>9</v>
-      </c>
       <c r="BA541">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BB541">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC541">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD541">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="BE541">
-        <v>11.7</v>
+        <v>0</v>
       </c>
       <c r="BF541">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="BG541">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="BH541">
-        <v>3.72</v>
+        <v>0</v>
       </c>
       <c r="BI541">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="BJ541">
-        <v>2.58</v>
+        <v>0</v>
       </c>
       <c r="BK541">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="BL541">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="BM541">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="BN541">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="BO541">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="BP541">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:68">
@@ -113563,7 +113566,7 @@
         <v>8</v>
       </c>
       <c r="O542" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P542" t="s">
         <v>558</v>
@@ -113936,7 +113939,7 @@
         <v>543</v>
       </c>
       <c r="B544">
-        <v>7479289</v>
+        <v>7479290</v>
       </c>
       <c r="C544" t="s">
         <v>68</v>
@@ -113951,34 +113954,34 @@
         <v>46</v>
       </c>
       <c r="G544" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H544" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I544">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J544">
         <v>1</v>
       </c>
       <c r="K544">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L544">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M544">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N544">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O544" t="s">
-        <v>95</v>
+        <v>406</v>
       </c>
       <c r="P544" t="s">
-        <v>348</v>
+        <v>559</v>
       </c>
       <c r="Q544">
         <v>2.25</v>
@@ -113996,10 +113999,10 @@
         <v>2.75</v>
       </c>
       <c r="V544">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W544">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X544">
         <v>8</v>
@@ -114008,31 +114011,31 @@
         <v>1.08</v>
       </c>
       <c r="Z544">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="AA544">
-        <v>3.78</v>
+        <v>4</v>
       </c>
       <c r="AB544">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="AC544">
         <v>1.05</v>
       </c>
       <c r="AD544">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE544">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AF544">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AG544">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="AH544">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AI544">
         <v>2</v>
@@ -114041,7 +114044,7 @@
         <v>1.73</v>
       </c>
       <c r="AK544">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="AL544">
         <v>1.26</v>
@@ -114050,91 +114053,91 @@
         <v>2.15</v>
       </c>
       <c r="AN544">
-        <v>1.95</v>
+        <v>1.59</v>
       </c>
       <c r="AO544">
-        <v>1.09</v>
+        <v>0.64</v>
       </c>
       <c r="AP544">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="AQ544">
-        <v>1.17</v>
+        <v>0.65</v>
       </c>
       <c r="AR544">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AS544">
-        <v>1.04</v>
+        <v>0.99</v>
       </c>
       <c r="AT544">
-        <v>2.71</v>
+        <v>2.41</v>
       </c>
       <c r="AU544">
+        <v>6</v>
+      </c>
+      <c r="AV544">
+        <v>6</v>
+      </c>
+      <c r="AW544">
+        <v>8</v>
+      </c>
+      <c r="AX544">
+        <v>3</v>
+      </c>
+      <c r="AY544">
+        <v>16</v>
+      </c>
+      <c r="AZ544">
+        <v>9</v>
+      </c>
+      <c r="BA544">
         <v>5</v>
       </c>
-      <c r="AV544">
-        <v>2</v>
-      </c>
-      <c r="AW544">
+      <c r="BB544">
+        <v>4</v>
+      </c>
+      <c r="BC544">
         <v>9</v>
       </c>
-      <c r="AX544">
-        <v>4</v>
-      </c>
-      <c r="AY544">
-        <v>19</v>
-      </c>
-      <c r="AZ544">
-        <v>7</v>
-      </c>
-      <c r="BA544">
-        <v>11</v>
-      </c>
-      <c r="BB544">
-        <v>1</v>
-      </c>
-      <c r="BC544">
-        <v>12</v>
-      </c>
       <c r="BD544">
-        <v>1.38</v>
+        <v>1.16</v>
       </c>
       <c r="BE544">
-        <v>7</v>
+        <v>11.7</v>
       </c>
       <c r="BF544">
-        <v>3.3</v>
+        <v>7.8</v>
       </c>
       <c r="BG544">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="BH544">
-        <v>3.95</v>
+        <v>3.72</v>
       </c>
       <c r="BI544">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="BJ544">
-        <v>2.9</v>
+        <v>2.58</v>
       </c>
       <c r="BK544">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="BL544">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="BM544">
-        <v>1.91</v>
+        <v>2.16</v>
       </c>
       <c r="BN544">
-        <v>1.77</v>
+        <v>1.61</v>
       </c>
       <c r="BO544">
-        <v>2.4</v>
+        <v>2.84</v>
       </c>
       <c r="BP544">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="545" spans="1:68">
@@ -114142,7 +114145,7 @@
         <v>544</v>
       </c>
       <c r="B545">
-        <v>7479283</v>
+        <v>7479289</v>
       </c>
       <c r="C545" t="s">
         <v>68</v>
@@ -114157,190 +114160,190 @@
         <v>46</v>
       </c>
       <c r="G545" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H545" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I545">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J545">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K545">
         <v>1</v>
       </c>
       <c r="L545">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M545">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N545">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O545" t="s">
-        <v>407</v>
+        <v>95</v>
       </c>
       <c r="P545" t="s">
-        <v>95</v>
+        <v>348</v>
       </c>
       <c r="Q545">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="R545">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="S545">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="T545">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="U545">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V545">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="W545">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="X545">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="Y545">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="Z545">
-        <v>2.13</v>
+        <v>1.63</v>
       </c>
       <c r="AA545">
-        <v>3.59</v>
+        <v>3.78</v>
       </c>
       <c r="AB545">
-        <v>3.12</v>
+        <v>5.2</v>
       </c>
       <c r="AC545">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD545">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE545">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AF545">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="AG545">
-        <v>1.65</v>
+        <v>1.98</v>
       </c>
       <c r="AH545">
-        <v>2.15</v>
+        <v>1.77</v>
       </c>
       <c r="AI545">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="AJ545">
-        <v>2.38</v>
+        <v>1.73</v>
       </c>
       <c r="AK545">
-        <v>1.35</v>
+        <v>1.16</v>
       </c>
       <c r="AL545">
         <v>1.26</v>
       </c>
       <c r="AM545">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="AN545">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AO545">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AP545">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="AQ545">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="AR545">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AS545">
-        <v>1.48</v>
+        <v>1.04</v>
       </c>
       <c r="AT545">
-        <v>3.24</v>
+        <v>2.71</v>
       </c>
       <c r="AU545">
         <v>5</v>
       </c>
       <c r="AV545">
+        <v>2</v>
+      </c>
+      <c r="AW545">
+        <v>9</v>
+      </c>
+      <c r="AX545">
+        <v>4</v>
+      </c>
+      <c r="AY545">
+        <v>19</v>
+      </c>
+      <c r="AZ545">
         <v>7</v>
       </c>
-      <c r="AW545">
-        <v>13</v>
-      </c>
-      <c r="AX545">
-        <v>15</v>
-      </c>
-      <c r="AY545">
-        <v>22</v>
-      </c>
-      <c r="AZ545">
-        <v>27</v>
-      </c>
       <c r="BA545">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BB545">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC545">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD545">
-        <v>1.58</v>
+        <v>1.38</v>
       </c>
       <c r="BE545">
         <v>7</v>
       </c>
       <c r="BF545">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="BG545">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="BH545">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="BI545">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="BJ545">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="BK545">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="BL545">
-        <v>2.43</v>
+        <v>2.2</v>
       </c>
       <c r="BM545">
-        <v>1.76</v>
+        <v>1.91</v>
       </c>
       <c r="BN545">
-        <v>1.94</v>
+        <v>1.77</v>
       </c>
       <c r="BO545">
-        <v>2.17</v>
+        <v>2.4</v>
       </c>
       <c r="BP545">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="546" spans="1:68">
@@ -114348,7 +114351,7 @@
         <v>545</v>
       </c>
       <c r="B546">
-        <v>7479287</v>
+        <v>7479283</v>
       </c>
       <c r="C546" t="s">
         <v>68</v>
@@ -114363,190 +114366,190 @@
         <v>46</v>
       </c>
       <c r="G546" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H546" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I546">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J546">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K546">
         <v>1</v>
       </c>
       <c r="L546">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M546">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N546">
         <v>2</v>
       </c>
       <c r="O546" t="s">
-        <v>104</v>
+        <v>407</v>
       </c>
       <c r="P546" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="Q546">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="R546">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="S546">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="T546">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="U546">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V546">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="W546">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="X546">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="Y546">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="Z546">
-        <v>3.14</v>
+        <v>2.13</v>
       </c>
       <c r="AA546">
-        <v>3.69</v>
+        <v>3.59</v>
       </c>
       <c r="AB546">
-        <v>2.08</v>
+        <v>3.12</v>
       </c>
       <c r="AC546">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD546">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE546">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="AF546">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="AG546">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="AH546">
-        <v>1.87</v>
+        <v>2.15</v>
       </c>
       <c r="AI546">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="AJ546">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="AK546">
-        <v>1.67</v>
+        <v>1.35</v>
       </c>
       <c r="AL546">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AM546">
-        <v>1.35</v>
+        <v>1.7</v>
       </c>
       <c r="AN546">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="AO546">
         <v>1.14</v>
       </c>
       <c r="AP546">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="AQ546">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="AR546">
-        <v>1.56</v>
+        <v>1.76</v>
       </c>
       <c r="AS546">
-        <v>1.22</v>
+        <v>1.48</v>
       </c>
       <c r="AT546">
-        <v>2.78</v>
+        <v>3.24</v>
       </c>
       <c r="AU546">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV546">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW546">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AX546">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AY546">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AZ546">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="BA546">
         <v>5</v>
       </c>
       <c r="BB546">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC546">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD546">
-        <v>1.9</v>
+        <v>1.58</v>
       </c>
       <c r="BE546">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="BF546">
-        <v>2.08</v>
+        <v>2.55</v>
       </c>
       <c r="BG546">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="BH546">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BI546">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="BJ546">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="BK546">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="BL546">
-        <v>2.32</v>
+        <v>2.43</v>
       </c>
       <c r="BM546">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="BN546">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="BO546">
-        <v>2.28</v>
+        <v>2.17</v>
       </c>
       <c r="BP546">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="547" spans="1:68">
@@ -114554,7 +114557,7 @@
         <v>546</v>
       </c>
       <c r="B547">
-        <v>7479286</v>
+        <v>7479287</v>
       </c>
       <c r="C547" t="s">
         <v>68</v>
@@ -114569,16 +114572,16 @@
         <v>46</v>
       </c>
       <c r="G547" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H547" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I547">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J547">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K547">
         <v>1</v>
@@ -114587,172 +114590,172 @@
         <v>1</v>
       </c>
       <c r="M547">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N547">
+        <v>2</v>
+      </c>
+      <c r="O547" t="s">
+        <v>104</v>
+      </c>
+      <c r="P547" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q547">
+        <v>3.75</v>
+      </c>
+      <c r="R547">
+        <v>2.2</v>
+      </c>
+      <c r="S547">
+        <v>2.75</v>
+      </c>
+      <c r="T547">
+        <v>1.36</v>
+      </c>
+      <c r="U547">
         <v>3</v>
       </c>
-      <c r="O547" t="s">
-        <v>125</v>
-      </c>
-      <c r="P547" t="s">
-        <v>559</v>
-      </c>
-      <c r="Q547">
-        <v>9</v>
-      </c>
-      <c r="R547">
+      <c r="V547">
         <v>2.75</v>
       </c>
-      <c r="S547">
+      <c r="W547">
+        <v>1.4</v>
+      </c>
+      <c r="X547">
+        <v>7</v>
+      </c>
+      <c r="Y547">
+        <v>1.1</v>
+      </c>
+      <c r="Z547">
+        <v>3.14</v>
+      </c>
+      <c r="AA547">
+        <v>3.69</v>
+      </c>
+      <c r="AB547">
+        <v>2.08</v>
+      </c>
+      <c r="AC547">
+        <v>1.05</v>
+      </c>
+      <c r="AD547">
+        <v>9.5</v>
+      </c>
+      <c r="AE547">
+        <v>1.28</v>
+      </c>
+      <c r="AF547">
+        <v>3.55</v>
+      </c>
+      <c r="AG547">
+        <v>1.87</v>
+      </c>
+      <c r="AH547">
+        <v>1.87</v>
+      </c>
+      <c r="AI547">
+        <v>1.73</v>
+      </c>
+      <c r="AJ547">
+        <v>2</v>
+      </c>
+      <c r="AK547">
         <v>1.67</v>
       </c>
-      <c r="T547">
-        <v>1.25</v>
-      </c>
-      <c r="U547">
-        <v>3.75</v>
-      </c>
-      <c r="V547">
-        <v>2.2</v>
-      </c>
-      <c r="W547">
-        <v>1.62</v>
-      </c>
-      <c r="X547">
-        <v>5</v>
-      </c>
-      <c r="Y547">
-        <v>1.17</v>
-      </c>
-      <c r="Z547">
-        <v>8.1</v>
-      </c>
-      <c r="AA547">
-        <v>5.6</v>
-      </c>
-      <c r="AB547">
-        <v>1.3</v>
-      </c>
-      <c r="AC547">
-        <v>1.03</v>
-      </c>
-      <c r="AD547">
-        <v>11</v>
-      </c>
-      <c r="AE547">
-        <v>1.17</v>
-      </c>
-      <c r="AF547">
-        <v>5</v>
-      </c>
-      <c r="AG547">
-        <v>1.65</v>
-      </c>
-      <c r="AH547">
-        <v>2.15</v>
-      </c>
-      <c r="AI547">
-        <v>2</v>
-      </c>
-      <c r="AJ547">
-        <v>1.73</v>
-      </c>
-      <c r="AK547">
-        <v>3.75</v>
-      </c>
       <c r="AL547">
+        <v>1.22</v>
+      </c>
+      <c r="AM547">
+        <v>1.35</v>
+      </c>
+      <c r="AN547">
+        <v>1.77</v>
+      </c>
+      <c r="AO547">
+        <v>1.14</v>
+      </c>
+      <c r="AP547">
+        <v>1.74</v>
+      </c>
+      <c r="AQ547">
         <v>1.13</v>
       </c>
-      <c r="AM547">
-        <v>1.05</v>
-      </c>
-      <c r="AN547">
-        <v>1.55</v>
-      </c>
-      <c r="AO547">
-        <v>1.77</v>
-      </c>
-      <c r="AP547">
-        <v>1.48</v>
-      </c>
-      <c r="AQ547">
-        <v>1.83</v>
-      </c>
       <c r="AR547">
-        <v>1.29</v>
+        <v>1.56</v>
       </c>
       <c r="AS547">
-        <v>1.54</v>
+        <v>1.22</v>
       </c>
       <c r="AT547">
-        <v>2.83</v>
+        <v>2.78</v>
       </c>
       <c r="AU547">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV547">
         <v>5</v>
       </c>
       <c r="AW547">
+        <v>9</v>
+      </c>
+      <c r="AX547">
         <v>6</v>
       </c>
-      <c r="AX547">
-        <v>18</v>
-      </c>
       <c r="AY547">
+        <v>16</v>
+      </c>
+      <c r="AZ547">
+        <v>13</v>
+      </c>
+      <c r="BA547">
+        <v>5</v>
+      </c>
+      <c r="BB547">
+        <v>5</v>
+      </c>
+      <c r="BC547">
         <v>10</v>
       </c>
-      <c r="AZ547">
-        <v>27</v>
-      </c>
-      <c r="BA547">
-        <v>1</v>
-      </c>
-      <c r="BB547">
-        <v>7</v>
-      </c>
-      <c r="BC547">
-        <v>8</v>
-      </c>
       <c r="BD547">
-        <v>5.3</v>
+        <v>1.9</v>
       </c>
       <c r="BE547">
-        <v>9.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF547">
+        <v>2.08</v>
+      </c>
+      <c r="BG547">
         <v>1.17</v>
       </c>
-      <c r="BG547">
-        <v>1.2</v>
-      </c>
       <c r="BH547">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="BI547">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="BJ547">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="BK547">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="BL547">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="BM547">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="BN547">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="BO547">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="BP547">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="548" spans="1:68">
@@ -114760,7 +114763,7 @@
         <v>547</v>
       </c>
       <c r="B548">
-        <v>7479285</v>
+        <v>7479286</v>
       </c>
       <c r="C548" t="s">
         <v>68</v>
@@ -114775,70 +114778,70 @@
         <v>46</v>
       </c>
       <c r="G548" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H548" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I548">
+        <v>1</v>
+      </c>
+      <c r="J548">
+        <v>0</v>
+      </c>
+      <c r="K548">
+        <v>1</v>
+      </c>
+      <c r="L548">
+        <v>1</v>
+      </c>
+      <c r="M548">
+        <v>2</v>
+      </c>
+      <c r="N548">
         <v>3</v>
       </c>
-      <c r="J548">
-        <v>0</v>
-      </c>
-      <c r="K548">
-        <v>3</v>
-      </c>
-      <c r="L548">
-        <v>4</v>
-      </c>
-      <c r="M548">
-        <v>2</v>
-      </c>
-      <c r="N548">
-        <v>6</v>
-      </c>
       <c r="O548" t="s">
-        <v>408</v>
+        <v>125</v>
       </c>
       <c r="P548" t="s">
         <v>560</v>
       </c>
       <c r="Q548">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="R548">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="S548">
+        <v>1.67</v>
+      </c>
+      <c r="T548">
+        <v>1.25</v>
+      </c>
+      <c r="U548">
+        <v>3.75</v>
+      </c>
+      <c r="V548">
+        <v>2.2</v>
+      </c>
+      <c r="W548">
+        <v>1.62</v>
+      </c>
+      <c r="X548">
         <v>5</v>
       </c>
-      <c r="T548">
-        <v>1.29</v>
-      </c>
-      <c r="U548">
-        <v>3.5</v>
-      </c>
-      <c r="V548">
-        <v>2.38</v>
-      </c>
-      <c r="W548">
-        <v>1.53</v>
-      </c>
-      <c r="X548">
-        <v>5.5</v>
-      </c>
       <c r="Y548">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="Z548">
-        <v>1.64</v>
+        <v>8.1</v>
       </c>
       <c r="AA548">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="AB548">
-        <v>4.33</v>
+        <v>1.3</v>
       </c>
       <c r="AC548">
         <v>1.03</v>
@@ -114847,118 +114850,118 @@
         <v>11</v>
       </c>
       <c r="AE548">
+        <v>1.17</v>
+      </c>
+      <c r="AF548">
+        <v>5</v>
+      </c>
+      <c r="AG548">
+        <v>1.65</v>
+      </c>
+      <c r="AH548">
+        <v>2.15</v>
+      </c>
+      <c r="AI548">
+        <v>2</v>
+      </c>
+      <c r="AJ548">
+        <v>1.73</v>
+      </c>
+      <c r="AK548">
+        <v>3.75</v>
+      </c>
+      <c r="AL548">
+        <v>1.13</v>
+      </c>
+      <c r="AM548">
+        <v>1.05</v>
+      </c>
+      <c r="AN548">
+        <v>1.55</v>
+      </c>
+      <c r="AO548">
+        <v>1.77</v>
+      </c>
+      <c r="AP548">
+        <v>1.48</v>
+      </c>
+      <c r="AQ548">
+        <v>1.83</v>
+      </c>
+      <c r="AR548">
+        <v>1.29</v>
+      </c>
+      <c r="AS548">
+        <v>1.54</v>
+      </c>
+      <c r="AT548">
+        <v>2.83</v>
+      </c>
+      <c r="AU548">
+        <v>3</v>
+      </c>
+      <c r="AV548">
+        <v>5</v>
+      </c>
+      <c r="AW548">
+        <v>6</v>
+      </c>
+      <c r="AX548">
+        <v>18</v>
+      </c>
+      <c r="AY548">
+        <v>10</v>
+      </c>
+      <c r="AZ548">
+        <v>27</v>
+      </c>
+      <c r="BA548">
+        <v>1</v>
+      </c>
+      <c r="BB548">
+        <v>7</v>
+      </c>
+      <c r="BC548">
+        <v>8</v>
+      </c>
+      <c r="BD548">
+        <v>5.3</v>
+      </c>
+      <c r="BE548">
+        <v>9.5</v>
+      </c>
+      <c r="BF548">
+        <v>1.17</v>
+      </c>
+      <c r="BG548">
         <v>1.2</v>
       </c>
-      <c r="AF548">
-        <v>4.5</v>
-      </c>
-      <c r="AG548">
-        <v>1.8</v>
-      </c>
-      <c r="AH548">
-        <v>1.95</v>
-      </c>
-      <c r="AI548">
-        <v>1.67</v>
-      </c>
-      <c r="AJ548">
-        <v>2.1</v>
-      </c>
-      <c r="AK548">
-        <v>1.18</v>
-      </c>
-      <c r="AL548">
-        <v>1.21</v>
-      </c>
-      <c r="AM548">
-        <v>2.25</v>
-      </c>
-      <c r="AN548">
-        <v>1.59</v>
-      </c>
-      <c r="AO548">
-        <v>0.77</v>
-      </c>
-      <c r="AP548">
-        <v>1.65</v>
-      </c>
-      <c r="AQ548">
-        <v>0.74</v>
-      </c>
-      <c r="AR548">
-        <v>1.54</v>
-      </c>
-      <c r="AS548">
-        <v>1.18</v>
-      </c>
-      <c r="AT548">
-        <v>2.72</v>
-      </c>
-      <c r="AU548">
-        <v>9</v>
-      </c>
-      <c r="AV548">
-        <v>6</v>
-      </c>
-      <c r="AW548">
-        <v>13</v>
-      </c>
-      <c r="AX548">
-        <v>13</v>
-      </c>
-      <c r="AY548">
-        <v>27</v>
-      </c>
-      <c r="AZ548">
-        <v>22</v>
-      </c>
-      <c r="BA548">
-        <v>7</v>
-      </c>
-      <c r="BB548">
-        <v>9</v>
-      </c>
-      <c r="BC548">
-        <v>16</v>
-      </c>
-      <c r="BD548">
-        <v>1.44</v>
-      </c>
-      <c r="BE548">
-        <v>7</v>
-      </c>
-      <c r="BF548">
-        <v>3.05</v>
-      </c>
-      <c r="BG548">
-        <v>1.21</v>
-      </c>
       <c r="BH548">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="BI548">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="BJ548">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="BK548">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="BL548">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="BM548">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="BN548">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="BO548">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="BP548">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="549" spans="1:68">
@@ -114966,7 +114969,7 @@
         <v>548</v>
       </c>
       <c r="B549">
-        <v>7479284</v>
+        <v>7479285</v>
       </c>
       <c r="C549" t="s">
         <v>68</v>
@@ -114981,190 +114984,190 @@
         <v>46</v>
       </c>
       <c r="G549" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H549" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I549">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J549">
         <v>0</v>
       </c>
       <c r="K549">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L549">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M549">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N549">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O549" t="s">
-        <v>95</v>
+        <v>408</v>
       </c>
       <c r="P549" t="s">
-        <v>95</v>
+        <v>561</v>
       </c>
       <c r="Q549">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="R549">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="S549">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="T549">
+        <v>1.29</v>
+      </c>
+      <c r="U549">
+        <v>3.5</v>
+      </c>
+      <c r="V549">
+        <v>2.38</v>
+      </c>
+      <c r="W549">
         <v>1.53</v>
       </c>
-      <c r="U549">
-        <v>2.38</v>
-      </c>
-      <c r="V549">
-        <v>3.5</v>
-      </c>
-      <c r="W549">
-        <v>1.29</v>
-      </c>
       <c r="X549">
+        <v>5.5</v>
+      </c>
+      <c r="Y549">
+        <v>1.14</v>
+      </c>
+      <c r="Z549">
+        <v>1.64</v>
+      </c>
+      <c r="AA549">
+        <v>4.4</v>
+      </c>
+      <c r="AB549">
+        <v>4.33</v>
+      </c>
+      <c r="AC549">
+        <v>1.03</v>
+      </c>
+      <c r="AD549">
         <v>11</v>
       </c>
-      <c r="Y549">
-        <v>1.05</v>
-      </c>
-      <c r="Z549">
-        <v>1.93</v>
-      </c>
-      <c r="AA549">
-        <v>2.96</v>
-      </c>
-      <c r="AB549">
-        <v>4.7</v>
-      </c>
-      <c r="AC549">
-        <v>1.11</v>
-      </c>
-      <c r="AD549">
-        <v>6.25</v>
-      </c>
       <c r="AE549">
-        <v>1.44</v>
+        <v>1.2</v>
       </c>
       <c r="AF549">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="AG549">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="AH549">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="AI549">
+        <v>1.67</v>
+      </c>
+      <c r="AJ549">
         <v>2.1</v>
       </c>
-      <c r="AJ549">
-        <v>1.67</v>
-      </c>
       <c r="AK549">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="AL549">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="AM549">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="AN549">
-        <v>1.41</v>
+        <v>1.59</v>
       </c>
       <c r="AO549">
         <v>0.77</v>
       </c>
       <c r="AP549">
-        <v>1.39</v>
+        <v>1.65</v>
       </c>
       <c r="AQ549">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AR549">
-        <v>1.32</v>
+        <v>1.54</v>
       </c>
       <c r="AS549">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="AT549">
-        <v>2.44</v>
+        <v>2.72</v>
       </c>
       <c r="AU549">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AV549">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW549">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AX549">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AY549">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="AZ549">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="BA549">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB549">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BC549">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BD549">
+        <v>1.44</v>
+      </c>
+      <c r="BE549">
+        <v>7</v>
+      </c>
+      <c r="BF549">
+        <v>3.05</v>
+      </c>
+      <c r="BG549">
+        <v>1.21</v>
+      </c>
+      <c r="BH549">
+        <v>3.7</v>
+      </c>
+      <c r="BI549">
         <v>1.38</v>
       </c>
-      <c r="BE549">
-        <v>7.5</v>
-      </c>
-      <c r="BF549">
-        <v>3.4</v>
-      </c>
-      <c r="BG549">
-        <v>1.24</v>
-      </c>
-      <c r="BH549">
-        <v>3.55</v>
-      </c>
-      <c r="BI549">
-        <v>1.41</v>
-      </c>
       <c r="BJ549">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="BK549">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="BL549">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="BM549">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="BN549">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="BO549">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="BP549">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="550" spans="1:68">
@@ -115172,7 +115175,7 @@
         <v>549</v>
       </c>
       <c r="B550">
-        <v>7479282</v>
+        <v>7479284</v>
       </c>
       <c r="C550" t="s">
         <v>68</v>
@@ -115187,190 +115190,190 @@
         <v>46</v>
       </c>
       <c r="G550" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H550" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I550">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J550">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K550">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L550">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M550">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N550">
+        <v>0</v>
+      </c>
+      <c r="O550" t="s">
+        <v>95</v>
+      </c>
+      <c r="P550" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q550">
+        <v>2.75</v>
+      </c>
+      <c r="R550">
+        <v>2</v>
+      </c>
+      <c r="S550">
+        <v>4.75</v>
+      </c>
+      <c r="T550">
+        <v>1.53</v>
+      </c>
+      <c r="U550">
+        <v>2.38</v>
+      </c>
+      <c r="V550">
+        <v>3.5</v>
+      </c>
+      <c r="W550">
+        <v>1.29</v>
+      </c>
+      <c r="X550">
+        <v>11</v>
+      </c>
+      <c r="Y550">
+        <v>1.05</v>
+      </c>
+      <c r="Z550">
+        <v>1.93</v>
+      </c>
+      <c r="AA550">
+        <v>2.96</v>
+      </c>
+      <c r="AB550">
+        <v>4.7</v>
+      </c>
+      <c r="AC550">
+        <v>1.11</v>
+      </c>
+      <c r="AD550">
+        <v>6.25</v>
+      </c>
+      <c r="AE550">
+        <v>1.44</v>
+      </c>
+      <c r="AF550">
+        <v>2.7</v>
+      </c>
+      <c r="AG550">
+        <v>2.3</v>
+      </c>
+      <c r="AH550">
+        <v>1.55</v>
+      </c>
+      <c r="AI550">
+        <v>2.1</v>
+      </c>
+      <c r="AJ550">
+        <v>1.67</v>
+      </c>
+      <c r="AK550">
+        <v>1.23</v>
+      </c>
+      <c r="AL550">
+        <v>1.32</v>
+      </c>
+      <c r="AM550">
+        <v>1.8</v>
+      </c>
+      <c r="AN550">
+        <v>1.41</v>
+      </c>
+      <c r="AO550">
+        <v>0.77</v>
+      </c>
+      <c r="AP550">
+        <v>1.39</v>
+      </c>
+      <c r="AQ550">
+        <v>0.78</v>
+      </c>
+      <c r="AR550">
+        <v>1.32</v>
+      </c>
+      <c r="AS550">
+        <v>1.12</v>
+      </c>
+      <c r="AT550">
+        <v>2.44</v>
+      </c>
+      <c r="AU550">
+        <v>5</v>
+      </c>
+      <c r="AV550">
+        <v>2</v>
+      </c>
+      <c r="AW550">
+        <v>6</v>
+      </c>
+      <c r="AX550">
         <v>4</v>
       </c>
-      <c r="O550" t="s">
-        <v>409</v>
-      </c>
-      <c r="P550" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q550">
-        <v>2.2</v>
-      </c>
-      <c r="R550">
-        <v>2.2</v>
-      </c>
-      <c r="S550">
-        <v>6</v>
-      </c>
-      <c r="T550">
-        <v>1.4</v>
-      </c>
-      <c r="U550">
-        <v>2.75</v>
-      </c>
-      <c r="V550">
-        <v>3</v>
-      </c>
-      <c r="W550">
-        <v>1.36</v>
-      </c>
-      <c r="X550">
+      <c r="AY550">
+        <v>14</v>
+      </c>
+      <c r="AZ550">
         <v>8</v>
       </c>
-      <c r="Y550">
-        <v>1.08</v>
-      </c>
-      <c r="Z550">
-        <v>1.55</v>
-      </c>
-      <c r="AA550">
-        <v>4.1</v>
-      </c>
-      <c r="AB550">
-        <v>5.6</v>
-      </c>
-      <c r="AC550">
-        <v>1.06</v>
-      </c>
-      <c r="AD550">
-        <v>8.5</v>
-      </c>
-      <c r="AE550">
-        <v>1.35</v>
-      </c>
-      <c r="AF550">
-        <v>3.1</v>
-      </c>
-      <c r="AG550">
-        <v>2.2</v>
-      </c>
-      <c r="AH550">
-        <v>1.61</v>
-      </c>
-      <c r="AI550">
-        <v>2</v>
-      </c>
-      <c r="AJ550">
-        <v>1.73</v>
-      </c>
-      <c r="AK550">
-        <v>1.16</v>
-      </c>
-      <c r="AL550">
-        <v>1.26</v>
-      </c>
-      <c r="AM550">
-        <v>2.2</v>
-      </c>
-      <c r="AN550">
-        <v>2.18</v>
-      </c>
-      <c r="AO550">
-        <v>1.18</v>
-      </c>
-      <c r="AP550">
-        <v>2.22</v>
-      </c>
-      <c r="AQ550">
-        <v>1.13</v>
-      </c>
-      <c r="AR550">
-        <v>1.45</v>
-      </c>
-      <c r="AS550">
-        <v>1.14</v>
-      </c>
-      <c r="AT550">
-        <v>2.59</v>
-      </c>
-      <c r="AU550">
-        <v>10</v>
-      </c>
-      <c r="AV550">
-        <v>4</v>
-      </c>
-      <c r="AW550">
-        <v>12</v>
-      </c>
-      <c r="AX550">
-        <v>9</v>
-      </c>
-      <c r="AY550">
-        <v>29</v>
-      </c>
-      <c r="AZ550">
-        <v>14</v>
-      </c>
       <c r="BA550">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB550">
         <v>4</v>
       </c>
       <c r="BC550">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD550">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="BE550">
         <v>7.5</v>
       </c>
       <c r="BF550">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="BG550">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="BH550">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="BI550">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="BJ550">
+        <v>2.65</v>
+      </c>
+      <c r="BK550">
+        <v>1.67</v>
+      </c>
+      <c r="BL550">
+        <v>2.04</v>
+      </c>
+      <c r="BM550">
+        <v>2.06</v>
+      </c>
+      <c r="BN550">
+        <v>1.66</v>
+      </c>
+      <c r="BO550">
         <v>2.55</v>
       </c>
-      <c r="BK550">
-        <v>1.72</v>
-      </c>
-      <c r="BL550">
-        <v>1.98</v>
-      </c>
-      <c r="BM550">
-        <v>2.1</v>
-      </c>
-      <c r="BN550">
-        <v>1.64</v>
-      </c>
-      <c r="BO550">
-        <v>2.65</v>
-      </c>
       <c r="BP550">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="551" spans="1:68">
@@ -115378,7 +115381,7 @@
         <v>550</v>
       </c>
       <c r="B551">
-        <v>7479281</v>
+        <v>7479282</v>
       </c>
       <c r="C551" t="s">
         <v>68</v>
@@ -115393,43 +115396,43 @@
         <v>46</v>
       </c>
       <c r="G551" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H551" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I551">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J551">
         <v>1</v>
       </c>
       <c r="K551">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L551">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M551">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N551">
         <v>4</v>
       </c>
       <c r="O551" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="P551" t="s">
-        <v>561</v>
+        <v>200</v>
       </c>
       <c r="Q551">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="R551">
         <v>2.2</v>
       </c>
       <c r="S551">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T551">
         <v>1.4</v>
@@ -115450,13 +115453,13 @@
         <v>1.08</v>
       </c>
       <c r="Z551">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="AA551">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AB551">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="AC551">
         <v>1.06</v>
@@ -115471,112 +115474,112 @@
         <v>3.1</v>
       </c>
       <c r="AG551">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AH551">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="AI551">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AJ551">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AK551">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="AL551">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="AM551">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AN551">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="AO551">
-        <v>0.73</v>
+        <v>1.18</v>
       </c>
       <c r="AP551">
-        <v>1.92</v>
+        <v>2.22</v>
       </c>
       <c r="AQ551">
-        <v>0.74</v>
+        <v>1.13</v>
       </c>
       <c r="AR551">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="AS551">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="AT551">
-        <v>2.8</v>
+        <v>2.59</v>
       </c>
       <c r="AU551">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AV551">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW551">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AX551">
+        <v>9</v>
+      </c>
+      <c r="AY551">
+        <v>29</v>
+      </c>
+      <c r="AZ551">
         <v>14</v>
-      </c>
-      <c r="AY551">
-        <v>23</v>
-      </c>
-      <c r="AZ551">
-        <v>27</v>
       </c>
       <c r="BA551">
         <v>7</v>
       </c>
       <c r="BB551">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC551">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD551">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="BE551">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="BF551">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="BG551">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="BH551">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="BI551">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="BJ551">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="BK551">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="BL551">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="BM551">
-        <v>2.23</v>
+        <v>2.1</v>
       </c>
       <c r="BN551">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="BO551">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
       <c r="BP551">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="552" spans="1:68">
@@ -115584,7 +115587,7 @@
         <v>551</v>
       </c>
       <c r="B552">
-        <v>7479288</v>
+        <v>7479281</v>
       </c>
       <c r="C552" t="s">
         <v>68</v>
@@ -115599,43 +115602,43 @@
         <v>46</v>
       </c>
       <c r="G552" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H552" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I552">
         <v>0</v>
       </c>
       <c r="J552">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K552">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L552">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M552">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N552">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O552" t="s">
-        <v>318</v>
+        <v>410</v>
       </c>
       <c r="P552" t="s">
-        <v>217</v>
+        <v>562</v>
       </c>
       <c r="Q552">
-        <v>2.88</v>
+        <v>2.38</v>
       </c>
       <c r="R552">
         <v>2.2</v>
       </c>
       <c r="S552">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="T552">
         <v>1.4</v>
@@ -115644,10 +115647,10 @@
         <v>2.75</v>
       </c>
       <c r="V552">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W552">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X552">
         <v>8</v>
@@ -115656,133 +115659,133 @@
         <v>1.08</v>
       </c>
       <c r="Z552">
-        <v>2.06</v>
+        <v>1.59</v>
       </c>
       <c r="AA552">
-        <v>3.63</v>
+        <v>4.2</v>
       </c>
       <c r="AB552">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="AC552">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD552">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE552">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AF552">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="AG552">
-        <v>1.89</v>
+        <v>2.05</v>
       </c>
       <c r="AH552">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="AI552">
+        <v>1.91</v>
+      </c>
+      <c r="AJ552">
         <v>1.8</v>
       </c>
-      <c r="AJ552">
-        <v>1.91</v>
-      </c>
       <c r="AK552">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="AL552">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AM552">
-        <v>1.61</v>
+        <v>2.05</v>
       </c>
       <c r="AN552">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="AO552">
-        <v>1.14</v>
+        <v>0.73</v>
       </c>
       <c r="AP552">
-        <v>2.17</v>
+        <v>1.92</v>
       </c>
       <c r="AQ552">
-        <v>1.13</v>
+        <v>0.74</v>
       </c>
       <c r="AR552">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="AS552">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AT552">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="AU552">
+        <v>3</v>
+      </c>
+      <c r="AV552">
         <v>6</v>
       </c>
-      <c r="AV552">
+      <c r="AW552">
+        <v>15</v>
+      </c>
+      <c r="AX552">
+        <v>14</v>
+      </c>
+      <c r="AY552">
+        <v>23</v>
+      </c>
+      <c r="AZ552">
+        <v>27</v>
+      </c>
+      <c r="BA552">
+        <v>7</v>
+      </c>
+      <c r="BB552">
         <v>3</v>
       </c>
-      <c r="AW552">
-        <v>14</v>
-      </c>
-      <c r="AX552">
-        <v>6</v>
-      </c>
-      <c r="AY552">
-        <v>26</v>
-      </c>
-      <c r="AZ552">
-        <v>11</v>
-      </c>
-      <c r="BA552">
-        <v>8</v>
-      </c>
-      <c r="BB552">
-        <v>4</v>
-      </c>
       <c r="BC552">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD552">
-        <v>1.63</v>
+        <v>1.35</v>
       </c>
       <c r="BE552">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="BF552">
-        <v>2.55</v>
+        <v>3.55</v>
       </c>
       <c r="BG552">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="BH552">
-        <v>4.12</v>
+        <v>3.15</v>
       </c>
       <c r="BI552">
+        <v>1.5</v>
+      </c>
+      <c r="BJ552">
+        <v>2.4</v>
+      </c>
+      <c r="BK552">
+        <v>1.81</v>
+      </c>
+      <c r="BL552">
+        <v>1.88</v>
+      </c>
+      <c r="BM552">
+        <v>2.23</v>
+      </c>
+      <c r="BN552">
+        <v>1.56</v>
+      </c>
+      <c r="BO552">
+        <v>2.9</v>
+      </c>
+      <c r="BP552">
         <v>1.35</v>
-      </c>
-      <c r="BJ552">
-        <v>2.81</v>
-      </c>
-      <c r="BK552">
-        <v>1.64</v>
-      </c>
-      <c r="BL552">
-        <v>2.12</v>
-      </c>
-      <c r="BM552">
-        <v>2.02</v>
-      </c>
-      <c r="BN552">
-        <v>1.7</v>
-      </c>
-      <c r="BO552">
-        <v>2.6</v>
-      </c>
-      <c r="BP552">
-        <v>1.41</v>
       </c>
     </row>
     <row r="553" spans="1:68">
@@ -115790,7 +115793,7 @@
         <v>552</v>
       </c>
       <c r="B553">
-        <v>7893879</v>
+        <v>7479288</v>
       </c>
       <c r="C553" t="s">
         <v>68</v>
@@ -115799,196 +115802,196 @@
         <v>69</v>
       </c>
       <c r="E553" s="2">
-        <v>45785.66666666666</v>
+        <v>45780.35416666666</v>
       </c>
       <c r="F553">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G553" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H553" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="I553">
         <v>0</v>
       </c>
       <c r="J553">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K553">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L553">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M553">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N553">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O553" t="s">
-        <v>95</v>
+        <v>318</v>
       </c>
       <c r="P553" t="s">
-        <v>562</v>
+        <v>217</v>
       </c>
       <c r="Q553">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="R553">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="S553">
         <v>3.6</v>
       </c>
       <c r="T553">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="U553">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V553">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="W553">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="X553">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Y553">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="Z553">
-        <v>2.59</v>
+        <v>2.06</v>
       </c>
       <c r="AA553">
-        <v>3.19</v>
+        <v>3.63</v>
       </c>
       <c r="AB553">
-        <v>2.69</v>
+        <v>3.25</v>
       </c>
       <c r="AC553">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AD553">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="AE553">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AF553">
-        <v>2.4</v>
+        <v>3.35</v>
       </c>
       <c r="AG553">
-        <v>2.3</v>
+        <v>1.89</v>
       </c>
       <c r="AH553">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="AI553">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="AJ553">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="AK553">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AL553">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AM553">
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
       <c r="AN553">
-        <v>1.48</v>
+        <v>2.18</v>
       </c>
       <c r="AO553">
-        <v>1.98</v>
+        <v>1.14</v>
       </c>
       <c r="AP553">
-        <v>1.42</v>
+        <v>2.17</v>
       </c>
       <c r="AQ553">
-        <v>2.02</v>
+        <v>1.13</v>
       </c>
       <c r="AR553">
-        <v>1.46</v>
+        <v>1.59</v>
       </c>
       <c r="AS553">
-        <v>1.45</v>
+        <v>1.03</v>
       </c>
       <c r="AT553">
-        <v>2.91</v>
+        <v>2.62</v>
       </c>
       <c r="AU553">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV553">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW553">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AX553">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AY553">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="AZ553">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="BA553">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BB553">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC553">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BD553">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="BE553">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF553">
         <v>2.55</v>
       </c>
       <c r="BG553">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="BH553">
-        <v>3.5</v>
+        <v>4.12</v>
       </c>
       <c r="BI553">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="BJ553">
-        <v>2.4</v>
+        <v>2.81</v>
       </c>
       <c r="BK553">
-        <v>1.82</v>
+        <v>1.64</v>
       </c>
       <c r="BL553">
-        <v>1.82</v>
+        <v>2.12</v>
       </c>
       <c r="BM553">
-        <v>2.4</v>
+        <v>2.02</v>
       </c>
       <c r="BN553">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="BO553">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="BP553">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="554" spans="1:68">
@@ -115996,7 +115999,7 @@
         <v>553</v>
       </c>
       <c r="B554">
-        <v>7893880</v>
+        <v>7893879</v>
       </c>
       <c r="C554" t="s">
         <v>68</v>
@@ -116005,76 +116008,76 @@
         <v>69</v>
       </c>
       <c r="E554" s="2">
-        <v>45786.66666666666</v>
+        <v>45785.66666666666</v>
       </c>
       <c r="F554">
         <v>0</v>
       </c>
       <c r="G554" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H554" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I554">
         <v>0</v>
       </c>
       <c r="J554">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K554">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L554">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M554">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N554">
         <v>3</v>
       </c>
       <c r="O554" t="s">
-        <v>394</v>
+        <v>95</v>
       </c>
       <c r="P554" t="s">
         <v>563</v>
       </c>
       <c r="Q554">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="R554">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S554">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="T554">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U554">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V554">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W554">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X554">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y554">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Z554">
-        <v>2.3</v>
+        <v>2.59</v>
       </c>
       <c r="AA554">
-        <v>3.2</v>
+        <v>3.19</v>
       </c>
       <c r="AB554">
-        <v>3.1</v>
+        <v>2.69</v>
       </c>
       <c r="AC554">
         <v>1.1</v>
@@ -116086,7 +116089,7 @@
         <v>1.5</v>
       </c>
       <c r="AF554">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="AG554">
         <v>2.3</v>
@@ -116095,106 +116098,106 @@
         <v>1.55</v>
       </c>
       <c r="AI554">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AJ554">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AK554">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AL554">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AM554">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AN554">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AO554">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AP554">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AQ554">
-        <v>1.68</v>
+        <v>2.04</v>
       </c>
       <c r="AR554">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="AS554">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AT554">
-        <v>2.96</v>
+        <v>2.91</v>
       </c>
       <c r="AU554">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV554">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW554">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AX554">
+        <v>10</v>
+      </c>
+      <c r="AY554">
+        <v>6</v>
+      </c>
+      <c r="AZ554">
+        <v>20</v>
+      </c>
+      <c r="BA554">
+        <v>2</v>
+      </c>
+      <c r="BB554">
+        <v>5</v>
+      </c>
+      <c r="BC554">
         <v>7</v>
-      </c>
-      <c r="AY554">
-        <v>19</v>
-      </c>
-      <c r="AZ554">
-        <v>14</v>
-      </c>
-      <c r="BA554">
-        <v>10</v>
-      </c>
-      <c r="BB554">
-        <v>4</v>
-      </c>
-      <c r="BC554">
-        <v>14</v>
       </c>
       <c r="BD554">
         <v>1.7</v>
       </c>
       <c r="BE554">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="BF554">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="BG554">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="BH554">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="BI554">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="BJ554">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="BK554">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="BL554">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="BM554">
-        <v>2.08</v>
+        <v>2.4</v>
       </c>
       <c r="BN554">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="BO554">
-        <v>2.65</v>
+        <v>3.3</v>
       </c>
       <c r="BP554">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="555" spans="1:68">
@@ -116202,7 +116205,7 @@
         <v>554</v>
       </c>
       <c r="B555">
-        <v>7893881</v>
+        <v>7893880</v>
       </c>
       <c r="C555" t="s">
         <v>68</v>
@@ -116211,195 +116214,401 @@
         <v>69</v>
       </c>
       <c r="E555" s="2">
-        <v>45789.66666666666</v>
+        <v>45786.66666666666</v>
       </c>
       <c r="F555">
         <v>0</v>
       </c>
       <c r="G555" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H555" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I555">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J555">
         <v>0</v>
       </c>
       <c r="K555">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L555">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M555">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N555">
         <v>3</v>
       </c>
       <c r="O555" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="P555" t="s">
-        <v>95</v>
+        <v>564</v>
       </c>
       <c r="Q555">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="R555">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S555">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T555">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="U555">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="V555">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="W555">
+        <v>1.29</v>
+      </c>
+      <c r="X555">
+        <v>11</v>
+      </c>
+      <c r="Y555">
+        <v>1.05</v>
+      </c>
+      <c r="Z555">
+        <v>2.3</v>
+      </c>
+      <c r="AA555">
+        <v>3.2</v>
+      </c>
+      <c r="AB555">
+        <v>3.1</v>
+      </c>
+      <c r="AC555">
+        <v>1.1</v>
+      </c>
+      <c r="AD555">
+        <v>6.5</v>
+      </c>
+      <c r="AE555">
+        <v>1.5</v>
+      </c>
+      <c r="AF555">
+        <v>2.55</v>
+      </c>
+      <c r="AG555">
+        <v>2.3</v>
+      </c>
+      <c r="AH555">
+        <v>1.55</v>
+      </c>
+      <c r="AI555">
+        <v>2</v>
+      </c>
+      <c r="AJ555">
+        <v>1.73</v>
+      </c>
+      <c r="AK555">
         <v>1.33</v>
       </c>
-      <c r="X555">
-        <v>9</v>
-      </c>
-      <c r="Y555">
-        <v>1.07</v>
-      </c>
-      <c r="Z555">
-        <v>1.97</v>
-      </c>
-      <c r="AA555">
-        <v>3.58</v>
-      </c>
-      <c r="AB555">
-        <v>3.53</v>
-      </c>
-      <c r="AC555">
-        <v>1.07</v>
-      </c>
-      <c r="AD555">
-        <v>7.75</v>
-      </c>
-      <c r="AE555">
-        <v>1.38</v>
-      </c>
-      <c r="AF555">
-        <v>2.8</v>
-      </c>
-      <c r="AG555">
-        <v>2</v>
-      </c>
-      <c r="AH555">
-        <v>1.75</v>
-      </c>
-      <c r="AI555">
-        <v>1.91</v>
-      </c>
-      <c r="AJ555">
-        <v>1.8</v>
-      </c>
-      <c r="AK555">
-        <v>1.29</v>
-      </c>
       <c r="AL555">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AM555">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="AN555">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO555">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="AP555">
-        <v>2.02</v>
+        <v>1.47</v>
       </c>
       <c r="AQ555">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="AR555">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="AS555">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="AT555">
-        <v>2.91</v>
+        <v>2.96</v>
       </c>
       <c r="AU555">
         <v>4</v>
       </c>
       <c r="AV555">
+        <v>4</v>
+      </c>
+      <c r="AW555">
+        <v>11</v>
+      </c>
+      <c r="AX555">
         <v>7</v>
       </c>
-      <c r="AW555">
-        <v>13</v>
-      </c>
-      <c r="AX555">
-        <v>5</v>
-      </c>
       <c r="AY555">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AZ555">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA555">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BB555">
         <v>4</v>
       </c>
       <c r="BC555">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BD555">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="BE555">
         <v>6.75</v>
       </c>
       <c r="BF555">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="BG555">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="BH555">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="BI555">
         <v>1.43</v>
       </c>
       <c r="BJ555">
+        <v>2.6</v>
+      </c>
+      <c r="BK555">
+        <v>1.7</v>
+      </c>
+      <c r="BL555">
+        <v>2</v>
+      </c>
+      <c r="BM555">
+        <v>2.08</v>
+      </c>
+      <c r="BN555">
+        <v>1.65</v>
+      </c>
+      <c r="BO555">
+        <v>2.65</v>
+      </c>
+      <c r="BP555">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="556" spans="1:68">
+      <c r="A556" s="1">
+        <v>555</v>
+      </c>
+      <c r="B556">
+        <v>7893881</v>
+      </c>
+      <c r="C556" t="s">
+        <v>68</v>
+      </c>
+      <c r="D556" t="s">
+        <v>69</v>
+      </c>
+      <c r="E556" s="2">
+        <v>45789.66666666666</v>
+      </c>
+      <c r="F556">
+        <v>0</v>
+      </c>
+      <c r="G556" t="s">
+        <v>86</v>
+      </c>
+      <c r="H556" t="s">
+        <v>89</v>
+      </c>
+      <c r="I556">
+        <v>1</v>
+      </c>
+      <c r="J556">
+        <v>0</v>
+      </c>
+      <c r="K556">
+        <v>1</v>
+      </c>
+      <c r="L556">
+        <v>3</v>
+      </c>
+      <c r="M556">
+        <v>0</v>
+      </c>
+      <c r="N556">
+        <v>3</v>
+      </c>
+      <c r="O556" t="s">
+        <v>411</v>
+      </c>
+      <c r="P556" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q556">
+        <v>2.75</v>
+      </c>
+      <c r="R556">
+        <v>2.05</v>
+      </c>
+      <c r="S556">
+        <v>4.33</v>
+      </c>
+      <c r="T556">
+        <v>1.44</v>
+      </c>
+      <c r="U556">
+        <v>2.63</v>
+      </c>
+      <c r="V556">
+        <v>3.25</v>
+      </c>
+      <c r="W556">
+        <v>1.33</v>
+      </c>
+      <c r="X556">
+        <v>9</v>
+      </c>
+      <c r="Y556">
+        <v>1.07</v>
+      </c>
+      <c r="Z556">
+        <v>1.97</v>
+      </c>
+      <c r="AA556">
+        <v>3.58</v>
+      </c>
+      <c r="AB556">
+        <v>3.53</v>
+      </c>
+      <c r="AC556">
+        <v>1.07</v>
+      </c>
+      <c r="AD556">
+        <v>7.75</v>
+      </c>
+      <c r="AE556">
+        <v>1.38</v>
+      </c>
+      <c r="AF556">
+        <v>2.8</v>
+      </c>
+      <c r="AG556">
+        <v>2</v>
+      </c>
+      <c r="AH556">
+        <v>1.75</v>
+      </c>
+      <c r="AI556">
+        <v>1.91</v>
+      </c>
+      <c r="AJ556">
+        <v>1.8</v>
+      </c>
+      <c r="AK556">
+        <v>1.29</v>
+      </c>
+      <c r="AL556">
+        <v>1.31</v>
+      </c>
+      <c r="AM556">
+        <v>1.72</v>
+      </c>
+      <c r="AN556">
+        <v>2.02</v>
+      </c>
+      <c r="AO556">
+        <v>1.45</v>
+      </c>
+      <c r="AP556">
+        <v>2.04</v>
+      </c>
+      <c r="AQ556">
+        <v>1.42</v>
+      </c>
+      <c r="AR556">
+        <v>1.46</v>
+      </c>
+      <c r="AS556">
+        <v>1.45</v>
+      </c>
+      <c r="AT556">
+        <v>2.91</v>
+      </c>
+      <c r="AU556">
+        <v>4</v>
+      </c>
+      <c r="AV556">
+        <v>7</v>
+      </c>
+      <c r="AW556">
+        <v>13</v>
+      </c>
+      <c r="AX556">
+        <v>5</v>
+      </c>
+      <c r="AY556">
+        <v>24</v>
+      </c>
+      <c r="AZ556">
+        <v>15</v>
+      </c>
+      <c r="BA556">
+        <v>5</v>
+      </c>
+      <c r="BB556">
+        <v>4</v>
+      </c>
+      <c r="BC556">
+        <v>9</v>
+      </c>
+      <c r="BD556">
+        <v>1.64</v>
+      </c>
+      <c r="BE556">
+        <v>6.75</v>
+      </c>
+      <c r="BF556">
+        <v>2.5</v>
+      </c>
+      <c r="BG556">
+        <v>1.25</v>
+      </c>
+      <c r="BH556">
+        <v>3.4</v>
+      </c>
+      <c r="BI556">
+        <v>1.43</v>
+      </c>
+      <c r="BJ556">
         <v>2.55</v>
       </c>
-      <c r="BK555">
+      <c r="BK556">
         <v>1.72</v>
       </c>
-      <c r="BL555">
+      <c r="BL556">
         <v>1.98</v>
       </c>
-      <c r="BM555">
+      <c r="BM556">
         <v>2.14</v>
       </c>
-      <c r="BN555">
+      <c r="BN556">
         <v>1.62</v>
       </c>
-      <c r="BO555">
+      <c r="BO556">
         <v>2.7</v>
       </c>
-      <c r="BP555">
+      <c r="BP556">
         <v>1.4</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Championship_20242025.xlsx
@@ -116755,22 +116755,22 @@
         <v>2.96</v>
       </c>
       <c r="AU557">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV557">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW557">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AX557">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="AY557">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="AZ557">
-        <v>-1</v>
+        <v>28</v>
       </c>
       <c r="BA557">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Championship_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Championship_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3404" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3410" uniqueCount="567">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1713,6 +1713,9 @@
   <si>
     <t>['68', '88']</t>
   </si>
+  <si>
+    <t>['76', '90+5']</t>
+  </si>
 </sst>
 </file>
 
@@ -2073,7 +2076,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP557"/>
+  <dimension ref="A1:BP558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4061,7 +4064,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -5706,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ18">
         <v>1.17</v>
@@ -10859,7 +10862,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ43">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR43">
         <v>1.59</v>
@@ -12092,7 +12095,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ49">
         <v>0.74</v>
@@ -13537,7 +13540,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ56">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR56">
         <v>1.63</v>
@@ -16830,7 +16833,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ72">
         <v>0.78</v>
@@ -18275,7 +18278,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ79">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR79">
         <v>1.74</v>
@@ -21362,7 +21365,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ94">
         <v>1.09</v>
@@ -23422,7 +23425,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ104">
         <v>0.65</v>
@@ -26927,7 +26930,7 @@
         <v>1</v>
       </c>
       <c r="AQ121">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR121">
         <v>1.53</v>
@@ -28987,7 +28990,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ131">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR131">
         <v>1.3</v>
@@ -31250,7 +31253,7 @@
         <v>0.8</v>
       </c>
       <c r="AP142">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ142">
         <v>0.78</v>
@@ -33519,7 +33522,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ153">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR153">
         <v>1.73</v>
@@ -36609,7 +36612,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ168">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR168">
         <v>1.18</v>
@@ -38872,7 +38875,7 @@
         <v>1.17</v>
       </c>
       <c r="AP179">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ179">
         <v>1.39</v>
@@ -40935,7 +40938,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ189">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR189">
         <v>1.36</v>
@@ -42168,7 +42171,7 @@
         <v>0.29</v>
       </c>
       <c r="AP195">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ195">
         <v>0.65</v>
@@ -44022,10 +44025,10 @@
         <v>1.67</v>
       </c>
       <c r="AP204">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ204">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR204">
         <v>1.53</v>
@@ -52059,7 +52062,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ243">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR243">
         <v>1.43</v>
@@ -52262,7 +52265,7 @@
         <v>0.2</v>
       </c>
       <c r="AP244">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ244">
         <v>0.52</v>
@@ -56179,7 +56182,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ263">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR263">
         <v>1.31</v>
@@ -57618,7 +57621,7 @@
         <v>1.91</v>
       </c>
       <c r="AP270">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ270">
         <v>2.13</v>
@@ -58648,7 +58651,7 @@
         <v>1.42</v>
       </c>
       <c r="AP275">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ275">
         <v>1</v>
@@ -59681,7 +59684,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ280">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR280">
         <v>1.22</v>
@@ -66479,7 +66482,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ313">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR313">
         <v>1.47</v>
@@ -67506,7 +67509,7 @@
         <v>1</v>
       </c>
       <c r="AP318">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ318">
         <v>0.83</v>
@@ -69157,7 +69160,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ326">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR326">
         <v>1.39</v>
@@ -71420,7 +71423,7 @@
         <v>1.08</v>
       </c>
       <c r="AP337">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ337">
         <v>1.13</v>
@@ -76367,7 +76370,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ361">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR361">
         <v>1.49</v>
@@ -77806,7 +77809,7 @@
         <v>0.47</v>
       </c>
       <c r="AP368">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ368">
         <v>0.61</v>
@@ -80484,7 +80487,7 @@
         <v>1.29</v>
       </c>
       <c r="AP381">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ381">
         <v>1.09</v>
@@ -82959,7 +82962,7 @@
         <v>2.52</v>
       </c>
       <c r="AQ393">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR393">
         <v>1.99</v>
@@ -85840,7 +85843,7 @@
         <v>1.75</v>
       </c>
       <c r="AP407">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ407">
         <v>1.83</v>
@@ -86461,7 +86464,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ410">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR410">
         <v>1.51</v>
@@ -90372,7 +90375,7 @@
         <v>0.88</v>
       </c>
       <c r="AP429">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ429">
         <v>0.74</v>
@@ -92638,7 +92641,7 @@
         <v>1.11</v>
       </c>
       <c r="AP440">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ440">
         <v>0.92</v>
@@ -95319,7 +95322,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ453">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR453">
         <v>1.79</v>
@@ -96346,7 +96349,7 @@
         <v>1.21</v>
       </c>
       <c r="AP458">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ458">
         <v>1.04</v>
@@ -99439,7 +99442,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ473">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR473">
         <v>1.52</v>
@@ -101908,7 +101911,7 @@
         <v>1.15</v>
       </c>
       <c r="AP485">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ485">
         <v>1.13</v>
@@ -102117,7 +102120,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ486">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR486">
         <v>1.53</v>
@@ -107885,7 +107888,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ514">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR514">
         <v>1.64</v>
@@ -108294,7 +108297,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP516">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ516">
         <v>0.74</v>
@@ -112211,7 +112214,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ535">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AR535">
         <v>1.23</v>
@@ -115916,7 +115919,7 @@
         <v>1.14</v>
       </c>
       <c r="AP553">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ553">
         <v>1.13</v>
@@ -116125,7 +116128,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ554">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="AR554">
         <v>1.46</v>
@@ -116331,7 +116334,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ555">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="AR555">
         <v>1.49</v>
@@ -116534,7 +116537,7 @@
         <v>1.45</v>
       </c>
       <c r="AP556">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="AQ556">
         <v>1.42</v>
@@ -116740,7 +116743,7 @@
         <v>1.47</v>
       </c>
       <c r="AP557">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="AQ557">
         <v>1.46</v>
@@ -116819,6 +116822,212 @@
       </c>
       <c r="BP557">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="558" spans="1:68">
+      <c r="A558" s="1">
+        <v>557</v>
+      </c>
+      <c r="B558">
+        <v>7899506</v>
+      </c>
+      <c r="C558" t="s">
+        <v>68</v>
+      </c>
+      <c r="D558" t="s">
+        <v>69</v>
+      </c>
+      <c r="E558" s="2">
+        <v>45801.45902777778</v>
+      </c>
+      <c r="F558">
+        <v>0</v>
+      </c>
+      <c r="G558" t="s">
+        <v>86</v>
+      </c>
+      <c r="H558" t="s">
+        <v>93</v>
+      </c>
+      <c r="I558">
+        <v>1</v>
+      </c>
+      <c r="J558">
+        <v>0</v>
+      </c>
+      <c r="K558">
+        <v>1</v>
+      </c>
+      <c r="L558">
+        <v>1</v>
+      </c>
+      <c r="M558">
+        <v>2</v>
+      </c>
+      <c r="N558">
+        <v>3</v>
+      </c>
+      <c r="O558" t="s">
+        <v>102</v>
+      </c>
+      <c r="P558" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q558">
+        <v>3.1</v>
+      </c>
+      <c r="R558">
+        <v>1.95</v>
+      </c>
+      <c r="S558">
+        <v>4</v>
+      </c>
+      <c r="T558">
+        <v>1.53</v>
+      </c>
+      <c r="U558">
+        <v>2.38</v>
+      </c>
+      <c r="V558">
+        <v>3.5</v>
+      </c>
+      <c r="W558">
+        <v>1.29</v>
+      </c>
+      <c r="X558">
+        <v>11</v>
+      </c>
+      <c r="Y558">
+        <v>1.05</v>
+      </c>
+      <c r="Z558">
+        <v>2.32</v>
+      </c>
+      <c r="AA558">
+        <v>3.08</v>
+      </c>
+      <c r="AB558">
+        <v>3.19</v>
+      </c>
+      <c r="AC558">
+        <v>1.1</v>
+      </c>
+      <c r="AD558">
+        <v>6.5</v>
+      </c>
+      <c r="AE558">
+        <v>1.48</v>
+      </c>
+      <c r="AF558">
+        <v>2.6</v>
+      </c>
+      <c r="AG558">
+        <v>2.15</v>
+      </c>
+      <c r="AH558">
+        <v>1.61</v>
+      </c>
+      <c r="AI558">
+        <v>2.1</v>
+      </c>
+      <c r="AJ558">
+        <v>1.67</v>
+      </c>
+      <c r="AK558">
+        <v>1.35</v>
+      </c>
+      <c r="AL558">
+        <v>1.3</v>
+      </c>
+      <c r="AM558">
+        <v>1.55</v>
+      </c>
+      <c r="AN558">
+        <v>2.04</v>
+      </c>
+      <c r="AO558">
+        <v>1.67</v>
+      </c>
+      <c r="AP558">
+        <v>2</v>
+      </c>
+      <c r="AQ558">
+        <v>1.69</v>
+      </c>
+      <c r="AR558">
+        <v>1.46</v>
+      </c>
+      <c r="AS558">
+        <v>1.47</v>
+      </c>
+      <c r="AT558">
+        <v>2.93</v>
+      </c>
+      <c r="AU558">
+        <v>5</v>
+      </c>
+      <c r="AV558">
+        <v>4</v>
+      </c>
+      <c r="AW558">
+        <v>3</v>
+      </c>
+      <c r="AX558">
+        <v>6</v>
+      </c>
+      <c r="AY558">
+        <v>11</v>
+      </c>
+      <c r="AZ558">
+        <v>13</v>
+      </c>
+      <c r="BA558">
+        <v>1</v>
+      </c>
+      <c r="BB558">
+        <v>6</v>
+      </c>
+      <c r="BC558">
+        <v>7</v>
+      </c>
+      <c r="BD558">
+        <v>1.79</v>
+      </c>
+      <c r="BE558">
+        <v>6.75</v>
+      </c>
+      <c r="BF558">
+        <v>2.2</v>
+      </c>
+      <c r="BG558">
+        <v>1.28</v>
+      </c>
+      <c r="BH558">
+        <v>3.2</v>
+      </c>
+      <c r="BI558">
+        <v>1.48</v>
+      </c>
+      <c r="BJ558">
+        <v>2.43</v>
+      </c>
+      <c r="BK558">
+        <v>1.81</v>
+      </c>
+      <c r="BL558">
+        <v>1.88</v>
+      </c>
+      <c r="BM558">
+        <v>2.25</v>
+      </c>
+      <c r="BN558">
+        <v>1.55</v>
+      </c>
+      <c r="BO558">
+        <v>2.9</v>
+      </c>
+      <c r="BP558">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>
